--- a/设备缺陷问题库（日常巡视、故障处理问题库，广供记-002汇总表，202601起）.xlsx
+++ b/设备缺陷问题库（日常巡视、故障处理问题库，广供记-002汇总表，202601起）.xlsx
@@ -1117,7 +1117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
@@ -1138,7 +1138,7 @@
     <col width="24.6283185840708" customWidth="1" style="1" min="11" max="11"/>
     <col width="9.628318584070801" customWidth="1" style="1" min="12" max="12"/>
     <col width="10.8761061946903" customWidth="1" style="1" min="13" max="13"/>
-    <col width="9" customWidth="1" style="1" min="14" max="16384"/>
+    <col hidden="1" width="9" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.95" customHeight="1" s="12">
@@ -1246,442 +1246,661 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="101" customHeight="1" s="12">
-      <c r="A4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="n">
-        <v>45824</v>
+    <row r="4" ht="60.6" customHeight="1" s="12">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>2024.10.11</t>
+        </is>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>郑桂标、谢泽彬、焦仕亮</t>
+          <t>郭新城、洪映森</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>站房东北低压所</t>
-        </is>
-      </c>
-      <c r="E4" s="7" t="n"/>
+          <t>汕头高铁配电所</t>
+        </is>
+      </c>
+      <c r="E4" s="7" t="inlineStr">
+        <is>
+          <t>二次接线</t>
+        </is>
+      </c>
       <c r="F4" s="7" t="inlineStr">
         <is>
-          <t>东北低压所T2变有源滤波柜END204异常</t>
-        </is>
-      </c>
-      <c r="G4" s="7" t="n"/>
-      <c r="H4" s="8" t="n">
-        <v>45853</v>
+          <t>一级贯通调压器小电阻接地二次回路存在两点接地</t>
+        </is>
+      </c>
+      <c r="G4" s="7" t="inlineStr">
+        <is>
+          <t>高压柜厂家已在柜中有一点接地，小电阻零序电流互感器二次回路接线人员在小电阻柜内又一次接地，双方均未提醒、确认对方的接线方式，复测人员也未能及时发现此问题</t>
+        </is>
+      </c>
+      <c r="H4" s="7" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
       </c>
       <c r="I4" s="7" t="inlineStr">
         <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="J4" s="7" t="inlineStr">
+        <is>
+          <t>李海东</t>
+        </is>
+      </c>
+      <c r="K4" s="7" t="inlineStr">
+        <is>
+          <t>10月22、23日，天窗点内对配电所一段、二段母线停电，拆除重复接地点</t>
+        </is>
+      </c>
+      <c r="L4" s="7" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="M4" s="7" t="inlineStr">
+        <is>
           <t>洪映森</t>
         </is>
       </c>
-      <c r="J4" s="7" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录10月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="37.2" customHeight="1" s="12">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>2024.10.22</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>郭新城、洪映森</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>汕头高铁配电所</t>
+        </is>
+      </c>
+      <c r="E5" s="7" t="inlineStr">
+        <is>
+          <t>二次接线</t>
+        </is>
+      </c>
+      <c r="F5" s="7" t="inlineStr">
+        <is>
+          <t>一级贯通、综合贯通调压器小电阻接地二次接线存在感应电流</t>
+        </is>
+      </c>
+      <c r="G5" s="7" t="inlineStr">
+        <is>
+          <t>小电阻接地二次线路与柜门电磁锁电源线路为同一根的四芯电缆，运行中存在感应电</t>
+        </is>
+      </c>
+      <c r="H5" s="7" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="I5" s="7" t="inlineStr">
         <is>
           <t>郭新城</t>
         </is>
       </c>
-      <c r="K4" s="7" t="inlineStr">
-        <is>
-          <t>在厂家指导下采取重启设备、检查通信接口等方法，异常未消失。已要求厂家尽快到现场处理，期间工区要加强设备巡视，及时发现不安全因素</t>
-        </is>
-      </c>
-      <c r="L4" s="9" t="n"/>
-      <c r="M4" s="7" t="n"/>
+      <c r="J5" s="7" t="inlineStr">
+        <is>
+          <t>李海东</t>
+        </is>
+      </c>
+      <c r="K5" s="7" t="inlineStr"/>
+      <c r="L5" s="7" t="inlineStr"/>
+      <c r="M5" s="7" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录10月.doc</t>
+        </is>
+      </c>
     </row>
-    <row r="5" ht="90" customHeight="1" s="12">
-      <c r="A5" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="n">
-        <v>45824</v>
-      </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>郑桂标、谢泽彬、焦仕亮</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>站房东北低压所</t>
-        </is>
-      </c>
-      <c r="E5" s="7" t="n"/>
-      <c r="F5" s="7" t="inlineStr">
-        <is>
-          <t>东北低压所T3变有源滤波柜END304异常</t>
-        </is>
-      </c>
-      <c r="G5" s="7" t="n"/>
-      <c r="H5" s="8" t="n">
-        <v>45853</v>
-      </c>
-      <c r="I5" s="7" t="inlineStr">
+    <row r="6" ht="23.4" customHeight="1" s="12">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t>2024.11.04</t>
+        </is>
+      </c>
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t>孔超凡、焦仕亮</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>汕头站区配电所</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="inlineStr">
+        <is>
+          <t>地坪漆</t>
+        </is>
+      </c>
+      <c r="F6" s="7" t="inlineStr">
+        <is>
+          <t>高压室地坪漆开裂</t>
+        </is>
+      </c>
+      <c r="G6" s="7" t="inlineStr">
+        <is>
+          <t>地坪漆粉涮工艺不良，造成开裂</t>
+        </is>
+      </c>
+      <c r="H6" s="7" t="inlineStr">
+        <is>
+          <t>12.10</t>
+        </is>
+      </c>
+      <c r="I6" s="7" t="inlineStr">
         <is>
           <t>洪映森</t>
         </is>
       </c>
-      <c r="J5" s="7" t="inlineStr">
+      <c r="J6" s="7" t="inlineStr">
         <is>
           <t>郭新城</t>
         </is>
       </c>
-      <c r="K5" s="7" t="inlineStr">
-        <is>
-          <t>在厂家指导下采取重启设备、检查通信接口等方法，异常未消失。已要求厂家尽快到现场处理，期间工区要加强设备巡视，及时发现不安全因素</t>
-        </is>
-      </c>
-      <c r="L5" s="9" t="n"/>
-      <c r="M5" s="7" t="n"/>
+      <c r="K6" s="7" t="inlineStr">
+        <is>
+          <t>重新涮地坪漆</t>
+        </is>
+      </c>
+      <c r="L6" s="7" t="inlineStr"/>
+      <c r="M6" s="7" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录11月.doc</t>
+        </is>
+      </c>
     </row>
-    <row r="6" ht="49" customHeight="1" s="12">
-      <c r="A6" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="n">
-        <v>45846</v>
-      </c>
-      <c r="C6" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D6" s="7" t="inlineStr">
-        <is>
-          <t>站区配电所小电阻室</t>
-        </is>
-      </c>
-      <c r="E6" s="7" t="n"/>
-      <c r="F6" s="7" t="inlineStr">
-        <is>
-          <t>站区配电所一级侧、综合侧小电阻柜内显明灯不亮（3W）</t>
-        </is>
-      </c>
-      <c r="G6" s="7" t="inlineStr">
-        <is>
-          <t>照明灯损坏</t>
-        </is>
-      </c>
-      <c r="H6" s="8" t="n">
-        <v>45869</v>
-      </c>
-      <c r="I6" s="7" t="inlineStr">
+    <row r="7" ht="27" customHeight="1" s="12">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>2024.11.04</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>孔超凡、焦仕亮</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>汕头站区配电所</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>低压控制线</t>
+        </is>
+      </c>
+      <c r="F7" s="7" t="inlineStr">
+        <is>
+          <t>电缆夹层内风机控制箱内控制电缆外皮有划痕</t>
+        </is>
+      </c>
+      <c r="G7" s="7" t="inlineStr">
+        <is>
+          <t>安装工艺不良，敷设控制电缆时划伤电缆外皮</t>
+        </is>
+      </c>
+      <c r="H7" s="7" t="inlineStr">
+        <is>
+          <t>立行立改</t>
+        </is>
+      </c>
+      <c r="I7" s="7" t="inlineStr">
         <is>
           <t>洪映森</t>
         </is>
       </c>
-      <c r="J6" s="7" t="inlineStr">
+      <c r="J7" s="7" t="inlineStr">
         <is>
           <t>郭新城</t>
         </is>
       </c>
-      <c r="K6" s="7" t="n"/>
-      <c r="L6" s="7" t="n"/>
-      <c r="M6" s="7" t="n"/>
+      <c r="K7" s="7" t="inlineStr">
+        <is>
+          <t>采用绝缘胶布进行包扎</t>
+        </is>
+      </c>
+      <c r="L7" s="7" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="M7" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录11月.doc</t>
+        </is>
+      </c>
     </row>
-    <row r="7" ht="45" customHeight="1" s="12">
-      <c r="A7" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="n">
-        <v>45876</v>
-      </c>
-      <c r="C7" s="7" t="inlineStr">
+    <row r="8" ht="27" customHeight="1" s="12">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>2024.11.04</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>孔超凡、焦仕亮</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>汕头站区配电所</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>高压验电器</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr">
+        <is>
+          <t>高压验电器内电池电量不足，试验时声响太小</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <t>电池老化，电量下降</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr">
+        <is>
+          <t>立行立改</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="J8" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="K8" s="7" t="inlineStr">
+        <is>
+          <t>更换电池</t>
+        </is>
+      </c>
+      <c r="L8" s="7" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="M8" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录11月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="22.2" customHeight="1" s="12">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>2024.11.04</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>孔超凡、焦仕亮</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>汕头站区配电所</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>空调遥控器</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr">
+        <is>
+          <t>遥控器电量不足，无法遥控</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr">
+        <is>
+          <t>电池老化，电量下降</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr">
+        <is>
+          <t>立行立改</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="K9" s="7" t="inlineStr">
+        <is>
+          <t>更换电池</t>
+        </is>
+      </c>
+      <c r="L9" s="7" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="M9" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录11月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="25.2" customHeight="1" s="12">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>2024.11.04</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t>孔超凡、焦仕亮</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>南侧雨棚箱变</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>孔洞封堵</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr">
+        <is>
+          <t>箱变内个别低压电缆进出线孔洞未封堵</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr">
+        <is>
+          <t>施工时存在漏堵，未及时发现</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr">
+        <is>
+          <t>立行立改</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="K10" s="7" t="inlineStr">
+        <is>
+          <t>及时封堵孔洞</t>
+        </is>
+      </c>
+      <c r="L10" s="7" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="M10" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录11月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="25.8" customHeight="1" s="12">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>2024.11.04</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>孔超凡、焦仕亮</t>
+        </is>
+      </c>
+      <c r="D11" s="7" t="inlineStr">
+        <is>
+          <t>汕头站房柴发室</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>发电机组控制面板</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr">
+        <is>
+          <t>发电机组控制面板有一个指示灯外壳缺失</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr">
+        <is>
+          <t>指示灯外壳损坏脱落</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="J11" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="K11" s="7" t="inlineStr">
+        <is>
+          <t>安装缺失指示灯外壳</t>
+        </is>
+      </c>
+      <c r="L11" s="7" t="inlineStr"/>
+      <c r="M11" s="7" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录11月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="33" customHeight="1" s="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>2024/12/13</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr">
         <is>
           <t>调度</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
-        <is>
-          <t>汕头高铁配电所</t>
-        </is>
-      </c>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="7" t="inlineStr">
-        <is>
-          <t>8月7日凌晨3点50分接到车间通知调度后台报警</t>
-        </is>
-      </c>
-      <c r="G7" s="7" t="inlineStr">
-        <is>
-          <t>经综合分析判断为浪涌保护器质量问题造成</t>
-        </is>
-      </c>
-      <c r="H7" s="8" t="n">
-        <v>45930</v>
-      </c>
-      <c r="I7" s="7" t="inlineStr">
-        <is>
-          <t>洪映森</t>
-        </is>
-      </c>
-      <c r="J7" s="7" t="inlineStr">
-        <is>
-          <t>郭新城</t>
-        </is>
-      </c>
-      <c r="K7" s="7" t="inlineStr">
-        <is>
-          <t>通知惠州检修工区及时更换损坏的浪涌保护器。</t>
-        </is>
-      </c>
-      <c r="L7" s="7" t="n"/>
-      <c r="M7" s="10" t="n"/>
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t>汕头站东南低压所</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <t>低压开关短路跳闸</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr">
+        <is>
+          <t>低压侧二级开关后端线路短路</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr">
+        <is>
+          <t>联创在低压侧二级开关后端作业，造成线路短路，两级开关都跳闸。</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr">
+        <is>
+          <t>立行立改</t>
+        </is>
+      </c>
+      <c r="I12" s="7" t="inlineStr">
+        <is>
+          <t>联创公司</t>
+        </is>
+      </c>
+      <c r="J12" s="7" t="inlineStr">
+        <is>
+          <t>郑桂标</t>
+        </is>
+      </c>
+      <c r="K12" s="7" t="inlineStr">
+        <is>
+          <t>要求作业人员分开后端开关，按规范作业，避免短路</t>
+        </is>
+      </c>
+      <c r="L12" s="7" t="inlineStr">
+        <is>
+          <t>2024/12/13</t>
+        </is>
+      </c>
+      <c r="M12" s="7" t="inlineStr">
+        <is>
+          <t>郑桂标</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录12月.doc</t>
+        </is>
+      </c>
     </row>
-    <row r="8" ht="109" customHeight="1" s="12">
-      <c r="A8" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8" t="n">
-        <v>45968</v>
-      </c>
-      <c r="C8" s="7" t="inlineStr">
-        <is>
-          <t>孔超凡</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr">
-        <is>
-          <t>汕头站高铁配电所</t>
-        </is>
-      </c>
-      <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="inlineStr">
-        <is>
-          <t>汕头站高铁配电所，3231开关信息上传到调度端时间滞后两三分钟，导致调度端报文延时，可能会造成调度端后台显示先合断路器323后合隔离开关3231（检查发现电脑后台时间与手机时间相差三分钟）</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="n"/>
-      <c r="H8" s="8" t="n">
-        <v>46040</v>
-      </c>
-      <c r="I8" s="7" t="inlineStr">
-        <is>
-          <t>孔超凡</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr">
-        <is>
-          <t>郭新城</t>
-        </is>
-      </c>
-      <c r="K8" s="11" t="n"/>
-      <c r="L8" s="11" t="n"/>
-      <c r="M8" s="10" t="n"/>
-    </row>
-    <row r="9" ht="53" customHeight="1" s="12">
-      <c r="A9" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B9" s="8" t="n">
-        <v>46008</v>
-      </c>
-      <c r="C9" s="7" t="inlineStr">
-        <is>
-          <t>洪映森、王振豪</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>汕头站南侧雨棚停车场箱变</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="inlineStr">
-        <is>
-          <t>汕头站南侧雨棚停车场箱变维护通道熔纤盒前光纤断两根芯线（共四芯）</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="n"/>
-      <c r="H9" s="8" t="n">
-        <v>46039</v>
-      </c>
-      <c r="I9" s="7" t="inlineStr">
-        <is>
-          <t>洪映森</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr">
-        <is>
-          <t>郭新城</t>
-        </is>
-      </c>
-      <c r="K9" s="11" t="n"/>
-      <c r="L9" s="11" t="n"/>
-      <c r="M9" s="7" t="n"/>
-    </row>
-    <row r="10" ht="51" customHeight="1" s="12">
-      <c r="A10" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B10" s="8" t="n">
-        <v>46009</v>
-      </c>
-      <c r="C10" s="7" t="inlineStr">
-        <is>
-          <t>孔超凡、王振豪</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr">
-        <is>
-          <t>汕头站行车公寓低压所</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="inlineStr">
-        <is>
-          <t>汕头站行车公寓低压所集团调度后台自投自复功能，切除与投入同时显示红灯</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="n"/>
-      <c r="H10" s="8" t="n">
-        <v>46040</v>
-      </c>
-      <c r="I10" s="7" t="inlineStr">
-        <is>
-          <t>孔超凡</t>
-        </is>
-      </c>
-      <c r="J10" s="7" t="inlineStr">
-        <is>
-          <t>郭新城</t>
-        </is>
-      </c>
-      <c r="K10" s="11" t="n"/>
-      <c r="L10" s="10" t="n"/>
-      <c r="M10" s="7" t="n"/>
-    </row>
-    <row r="11" ht="44" customHeight="1" s="12">
-      <c r="A11" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" s="8" t="n">
-        <v>46028</v>
-      </c>
-      <c r="C11" s="7" t="inlineStr">
-        <is>
-          <t>郑桂标</t>
-        </is>
-      </c>
-      <c r="D11" s="7" t="inlineStr">
-        <is>
-          <t>汕头高铁配电所</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="inlineStr">
-        <is>
-          <t>站区配电所交流屏的J01电操损坏，需要更换</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr">
-        <is>
-          <t>设备质量问题</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr">
-        <is>
-          <t>2026/02/30</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr">
-        <is>
-          <t>洪映森</t>
-        </is>
-      </c>
-      <c r="J11" s="7" t="inlineStr">
-        <is>
-          <t>郭新城</t>
-        </is>
-      </c>
-      <c r="K11" s="7" t="n"/>
-      <c r="L11" s="7" t="n"/>
-      <c r="M11" s="7" t="n"/>
-    </row>
-    <row r="12" ht="41" customHeight="1" s="12">
-      <c r="A12" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="B12" s="8" t="n">
-        <v>46028</v>
-      </c>
-      <c r="C12" s="7" t="inlineStr">
-        <is>
-          <t>郑桂标</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>汕头高铁配电所</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="inlineStr">
-        <is>
-          <t>站区配电所一号所用变的YQF1开关本体脱扣损坏，需要更换</t>
-        </is>
-      </c>
-      <c r="G12" s="7" t="inlineStr">
-        <is>
-          <t>设备质量问题</t>
-        </is>
-      </c>
-      <c r="H12" s="7" t="inlineStr">
-        <is>
-          <t>2026/02/30</t>
-        </is>
-      </c>
-      <c r="I12" s="7" t="inlineStr">
-        <is>
-          <t>洪映森</t>
-        </is>
-      </c>
-      <c r="J12" s="7" t="inlineStr">
-        <is>
-          <t>郭新城</t>
-        </is>
-      </c>
-      <c r="K12" s="7" t="n"/>
-      <c r="L12" s="7" t="n"/>
-      <c r="M12" s="7" t="n"/>
-    </row>
-    <row r="13" ht="41" customHeight="1" s="12">
+    <row r="13" ht="39" customHeight="1" s="12">
       <c r="A13" s="7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>2026/01/06</t>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr">
         <is>
-          <t>焦仕亮、郑桂标、王振豪</t>
+          <t>吴杰凯</t>
         </is>
       </c>
       <c r="D13" s="7" t="inlineStr">
         <is>
-          <t>汕头高铁配电所</t>
+          <t>汕头站东南低压所</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr">
         <is>
-          <t>站区配电所交流屏的J01电操损坏，需要更换</t>
+          <t>D1-14-2(ESD2-3)空调动力在消防切非试验后，开关跳闸</t>
         </is>
       </c>
       <c r="G13" s="7" t="inlineStr">
         <is>
-          <t>设备质量问题</t>
+          <t>消防切非后，作业人员私自在后端作业，作业后遗留工具在开关上，造成送电后短路跳闸。</t>
         </is>
       </c>
       <c r="H13" s="7" t="inlineStr">
         <is>
-          <t>2026/02/30</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="I13" s="7" t="inlineStr">
@@ -1694,45 +1913,58 @@
           <t>郭新城</t>
         </is>
       </c>
-      <c r="K13" s="7" t="inlineStr"/>
-      <c r="L13" s="7" t="inlineStr"/>
-      <c r="M13" s="7" t="inlineStr"/>
+      <c r="K13" s="7" t="inlineStr">
+        <is>
+          <t>一是要求用户严禁私自在后端作业；二是更换绝缘子及开关，检测线路无异常后磅电正常</t>
+        </is>
+      </c>
+      <c r="L13" s="7" t="inlineStr">
+        <is>
+          <t>2025/11/22</t>
+        </is>
+      </c>
+      <c r="M13" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录11月.doc</t>
+        </is>
+      </c>
     </row>
-    <row r="14" ht="41" customHeight="1" s="12">
+    <row r="14" ht="34.2" customHeight="1" s="12">
       <c r="A14" s="7" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="B14" s="8" t="inlineStr">
-        <is>
-          <t>2026/01/06</t>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>2025/12/17</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr">
         <is>
-          <t>焦仕亮、郑桂标、王振豪</t>
+          <t>洪映森、王振豪</t>
         </is>
       </c>
       <c r="D14" s="7" t="inlineStr">
         <is>
-          <t>汕头高铁配电所</t>
+          <t>汕头站南侧雨棚停车场箱变</t>
         </is>
       </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr">
         <is>
-          <t>站区配电所一号所用变的YQF1开关本体脱扣损坏，需要更换</t>
-        </is>
-      </c>
-      <c r="G14" s="7" t="inlineStr">
-        <is>
-          <t>设备质量问题</t>
-        </is>
-      </c>
+          <t>汕头站南侧雨棚停车场箱变维护通道熔纤盒前光纤断两根芯线（共四芯）</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr">
         <is>
-          <t>2026/02/30</t>
+          <t>2026/1/17</t>
         </is>
       </c>
       <c r="I14" s="7" t="inlineStr">
@@ -1748,47 +1980,48 @@
       <c r="K14" s="7" t="inlineStr"/>
       <c r="L14" s="7" t="inlineStr"/>
       <c r="M14" s="7" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录12月.doc</t>
+        </is>
+      </c>
     </row>
-    <row r="15" ht="41" customHeight="1" s="12">
+    <row r="15" ht="35.40000000000001" customHeight="1" s="12">
       <c r="A15" s="7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>2025/11/20</t>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>2025/12/18</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr">
         <is>
-          <t>吴杰凯</t>
+          <t>孔超凡、王振豪</t>
         </is>
       </c>
       <c r="D15" s="7" t="inlineStr">
         <is>
-          <t>汕头站东南低压所</t>
+          <t>汕头站行车公寓低压所</t>
         </is>
       </c>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr">
         <is>
-          <t>D1-14-2(ESD2-3)空调动力在消防切非试验后，开关跳闸</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr">
-        <is>
-          <t>消防切非后，作业人员私自在后端作业，作业后遗留工具在开关上，造成送电后短路跳闸。</t>
-        </is>
-      </c>
+          <t>汕头站行车公寓低压所集团调度后台自投自复功能，切除与投入同时显示红灯</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr">
         <is>
-          <t>2025/11/25</t>
+          <t>2026/1/18</t>
         </is>
       </c>
       <c r="I15" s="7" t="inlineStr">
         <is>
-          <t>洪映森</t>
+          <t>孔超凡</t>
         </is>
       </c>
       <c r="J15" s="7" t="inlineStr">
@@ -1796,58 +2029,51 @@
           <t>郭新城</t>
         </is>
       </c>
-      <c r="K15" s="7" t="inlineStr">
-        <is>
-          <t>一是要求用户严禁私自在后端作业；二是更换绝缘子及开关，检测线路无异常后磅电正常</t>
-        </is>
-      </c>
-      <c r="L15" s="7" t="inlineStr">
-        <is>
-          <t>2025/11/22</t>
-        </is>
-      </c>
-      <c r="M15" s="7" t="inlineStr">
-        <is>
-          <t>洪映森</t>
+      <c r="K15" s="7" t="inlineStr"/>
+      <c r="L15" s="7" t="inlineStr"/>
+      <c r="M15" s="7" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录12月.doc</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="41" customHeight="1" s="12">
+    <row r="16" ht="71.39999999999999" customHeight="1" s="12">
       <c r="A16" s="7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>2025/12/17</t>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>2025/11/7</t>
         </is>
       </c>
       <c r="C16" s="7" t="inlineStr">
         <is>
-          <t>洪映森、王振豪</t>
+          <t>孔超凡</t>
         </is>
       </c>
       <c r="D16" s="7" t="inlineStr">
         <is>
-          <t>汕头站南侧雨棚停车场箱变</t>
+          <t>汕头站高铁配电所</t>
         </is>
       </c>
       <c r="E16" s="7" t="inlineStr"/>
       <c r="F16" s="7" t="inlineStr">
         <is>
-          <t>汕头站南侧雨棚停车场箱变维护通道熔纤盒前光纤断两根芯线（共四芯）</t>
+          <t>汕头站高铁配电所，3231开关信息上传到调度端时间滞后两三分钟，导致调度端报文延时，可能会造成调度端后台显示先合断路器323后合隔离开关3231（检查发现电脑后台时间与手机时间相差三分钟）</t>
         </is>
       </c>
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr">
         <is>
-          <t>2026/1/17</t>
+          <t>2026/1/18</t>
         </is>
       </c>
       <c r="I16" s="7" t="inlineStr">
         <is>
-          <t>洪映森</t>
+          <t>孔超凡</t>
         </is>
       </c>
       <c r="J16" s="7" t="inlineStr">
@@ -1858,601 +2084,663 @@
       <c r="K16" s="7" t="inlineStr"/>
       <c r="L16" s="7" t="inlineStr"/>
       <c r="M16" s="7" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录12月.doc</t>
+        </is>
+      </c>
     </row>
-    <row r="17" ht="41" customHeight="1" s="12">
+    <row r="17" ht="35.40000000000001" customHeight="1" s="12">
       <c r="A17" s="7" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>2025/12/18</t>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>2025/2/12</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr">
         <is>
-          <t>孔超凡、王振豪</t>
+          <t>车站</t>
         </is>
       </c>
       <c r="D17" s="7" t="inlineStr">
         <is>
-          <t>汕头站行车公寓低压所</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+          <t>汕头站东南低压所</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr">
+        <is>
+          <t>传感器故障</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr">
         <is>
-          <t>汕头站行车公寓低压所集团调度后台自投自复功能，切除与投入同时显示红灯</t>
-        </is>
-      </c>
-      <c r="G17" s="7" t="inlineStr"/>
+          <t>2月12日7点，车站通知车间汕头东南所外气体报警装置报警</t>
+        </is>
+      </c>
+      <c r="G17" s="7" t="inlineStr">
+        <is>
+          <t>SF6/Q2气体报警装置传感器损坏导致误报，现场已通知厂家更换传感器</t>
+        </is>
+      </c>
       <c r="H17" s="7" t="inlineStr">
         <is>
-          <t>2026/1/18</t>
+          <t>立行立改</t>
         </is>
       </c>
       <c r="I17" s="7" t="inlineStr">
         <is>
-          <t>孔超凡</t>
+          <t>中铁建设</t>
         </is>
       </c>
       <c r="J17" s="7" t="inlineStr">
         <is>
+          <t>焦仕亮</t>
+        </is>
+      </c>
+      <c r="K17" s="7" t="inlineStr">
+        <is>
+          <t>现场已通知厂家更换传感器</t>
+        </is>
+      </c>
+      <c r="L17" s="7" t="inlineStr">
+        <is>
+          <t>2025/2/12</t>
+        </is>
+      </c>
+      <c r="M17" s="7" t="inlineStr">
+        <is>
+          <t>焦仕亮</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录2月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="34.8" customHeight="1" s="12">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>2025/2/15</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr">
+        <is>
+          <t>车站</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr">
+        <is>
+          <t>汕头站东南低压所</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr">
+        <is>
+          <t>传感器故障</t>
+        </is>
+      </c>
+      <c r="F18" s="7" t="inlineStr">
+        <is>
+          <t>2月15日9点，车站通知车间汕头东南所外气体报警装置报警</t>
+        </is>
+      </c>
+      <c r="G18" s="7" t="inlineStr">
+        <is>
+          <t>SF6/Q3气体报警装置传感器灵敏度过高导致误报，厂家已设置好定值</t>
+        </is>
+      </c>
+      <c r="H18" s="7" t="inlineStr">
+        <is>
+          <t>立行立改</t>
+        </is>
+      </c>
+      <c r="I18" s="7" t="inlineStr">
+        <is>
+          <t>中铁建设</t>
+        </is>
+      </c>
+      <c r="J18" s="7" t="inlineStr">
+        <is>
+          <t>焦仕亮</t>
+        </is>
+      </c>
+      <c r="K18" s="7" t="inlineStr">
+        <is>
+          <t>已要求厂家重新设置好定值</t>
+        </is>
+      </c>
+      <c r="L18" s="7" t="inlineStr">
+        <is>
+          <t>2025/2/15</t>
+        </is>
+      </c>
+      <c r="M18" s="7" t="inlineStr">
+        <is>
+          <t>焦仕亮</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录2月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="33" customHeight="1" s="12">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>2025/2/16</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr">
+        <is>
+          <t>调度</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr">
+        <is>
+          <t>汕头站东北低压所</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="inlineStr">
+        <is>
+          <t>低压开关短路跳闸</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr">
+        <is>
+          <t>低压侧二级开关后端线路短路</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr">
+        <is>
+          <t>联创在低压侧二级开关后端作业，造成线路短路，两级开关都跳闸。</t>
+        </is>
+      </c>
+      <c r="H19" s="7" t="inlineStr">
+        <is>
+          <t>立行立改</t>
+        </is>
+      </c>
+      <c r="I19" s="7" t="inlineStr">
+        <is>
+          <t>联创公司</t>
+        </is>
+      </c>
+      <c r="J19" s="7" t="inlineStr">
+        <is>
+          <t>焦仕亮</t>
+        </is>
+      </c>
+      <c r="K19" s="7" t="inlineStr">
+        <is>
+          <t>要求作业人员分开后端开关，按规范作业，避免短路</t>
+        </is>
+      </c>
+      <c r="L19" s="7" t="inlineStr">
+        <is>
+          <t>2025/2/16</t>
+        </is>
+      </c>
+      <c r="M19" s="7" t="inlineStr">
+        <is>
+          <t>焦仕亮</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录2月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="46.2" customHeight="1" s="12">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>2025/4/7</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr">
+        <is>
+          <t>调度</t>
+        </is>
+      </c>
+      <c r="D20" s="7" t="inlineStr">
+        <is>
+          <t>汕头行车公寓低压所</t>
+        </is>
+      </c>
+      <c r="E20" s="7" t="inlineStr">
+        <is>
+          <t>低压侧二级开关上端短路</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr">
+        <is>
+          <t>4月7日14点20分，接车间李主任通知公寓楼低压所D2-9-1公寓楼4层总开关跳闸</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="inlineStr">
+        <is>
+          <t>公寓楼4层L-4-2开关箱电缆进口封堵作业过程中，工具掉落在二级开关上端头，造成线路短路，一级开关跳闸。</t>
+        </is>
+      </c>
+      <c r="H20" s="7" t="inlineStr">
+        <is>
+          <t>立行立改</t>
+        </is>
+      </c>
+      <c r="I20" s="7" t="inlineStr">
+        <is>
+          <t>公寓车间</t>
+        </is>
+      </c>
+      <c r="J20" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="K20" s="7" t="inlineStr">
+        <is>
+          <t>要求作业人员检查后端设备，确认线路正常后再申请送电，并要按规范作业，确保人身、设备安全</t>
+        </is>
+      </c>
+      <c r="L20" s="7" t="inlineStr">
+        <is>
+          <t>2025/4/7</t>
+        </is>
+      </c>
+      <c r="M20" s="7" t="inlineStr">
+        <is>
+          <t>吴杰凯</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录4月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="39.59999999999999" customHeight="1" s="12">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>2025/5/23</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr">
+        <is>
+          <t>郑桂标、吴杰凯</t>
+        </is>
+      </c>
+      <c r="D21" s="7" t="inlineStr">
+        <is>
+          <t>柴油发电机房</t>
+        </is>
+      </c>
+      <c r="E21" s="7" t="inlineStr">
+        <is>
+          <t>空调管漏水</t>
+        </is>
+      </c>
+      <c r="F21" s="7" t="inlineStr">
+        <is>
+          <t>5月23日09点40分，巡视发电机房发现油料房房顶空调管冷凝水滴落，造成地板小积水</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="inlineStr">
+        <is>
+          <t>空调排水管排水不畅</t>
+        </is>
+      </c>
+      <c r="H21" s="7" t="inlineStr">
+        <is>
+          <t>立行立改</t>
+        </is>
+      </c>
+      <c r="I21" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="J21" s="7" t="inlineStr">
+        <is>
           <t>郭新城</t>
         </is>
       </c>
-      <c r="K17" s="7" t="inlineStr"/>
-      <c r="L17" s="7" t="inlineStr"/>
-      <c r="M17" s="7" t="inlineStr"/>
+      <c r="K21" s="7" t="inlineStr">
+        <is>
+          <t>及时上报施工单位及厂家，要求及时修复</t>
+        </is>
+      </c>
+      <c r="L21" s="7" t="inlineStr">
+        <is>
+          <t>2025.6.6</t>
+        </is>
+      </c>
+      <c r="M21" s="7" t="inlineStr">
+        <is>
+          <t>洪映森、汪文轩</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录5月.doc</t>
+        </is>
+      </c>
     </row>
-    <row r="18" ht="71.39999999999999" customHeight="1" s="12">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>2025/11/7</t>
-        </is>
-      </c>
-      <c r="C18" s="7" t="inlineStr">
-        <is>
-          <t>孔超凡</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t>汕头站高铁配电所</t>
-        </is>
-      </c>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="7" t="inlineStr">
-        <is>
-          <t>汕头站高铁配电所，3231开关信息上传到调度端时间滞后两三分钟，导致调度端报文延时，可能会造成调度端后台显示先合断路器323后合隔离开关3231（检查发现电脑后台时间与手机时间相差三分钟）</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr">
-        <is>
-          <t>2026/1/18</t>
-        </is>
-      </c>
-      <c r="I18" s="7" t="inlineStr">
-        <is>
-          <t>孔超凡</t>
-        </is>
-      </c>
-      <c r="J18" s="7" t="inlineStr">
+    <row r="22" ht="38.4" customHeight="1" s="12">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>2025/5/23</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr">
+        <is>
+          <t>郑桂标、吴杰凯</t>
+        </is>
+      </c>
+      <c r="D22" s="7" t="inlineStr">
+        <is>
+          <t>站房东北低压所</t>
+        </is>
+      </c>
+      <c r="E22" s="7" t="inlineStr">
+        <is>
+          <t>滤波柜显示故障</t>
+        </is>
+      </c>
+      <c r="F22" s="7" t="inlineStr">
+        <is>
+          <t>5月23日09点00分，巡视站房东北低压所发现，END603有源滤波柜显示故障</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="inlineStr">
+        <is>
+          <t>谐波参数设置不合理，有源滤波柜无法投用</t>
+        </is>
+      </c>
+      <c r="H22" s="7" t="inlineStr">
+        <is>
+          <t>立行立改</t>
+        </is>
+      </c>
+      <c r="I22" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="J22" s="7" t="inlineStr">
         <is>
           <t>郭新城</t>
         </is>
       </c>
-      <c r="K18" s="7" t="inlineStr"/>
-      <c r="L18" s="7" t="inlineStr"/>
-      <c r="M18" s="7" t="inlineStr"/>
+      <c r="K22" s="7" t="inlineStr">
+        <is>
+          <t>及时上报施工单位及厂家，要求及时修复</t>
+        </is>
+      </c>
+      <c r="L22" s="7" t="inlineStr">
+        <is>
+          <t>2025.5.23</t>
+        </is>
+      </c>
+      <c r="M22" s="7" t="inlineStr">
+        <is>
+          <t>郑桂标、汪文轩</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录5月.doc</t>
+        </is>
+      </c>
     </row>
-    <row r="19" ht="41" customHeight="1" s="12">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B19" s="8" t="inlineStr">
-        <is>
-          <t>2025/2/12</t>
-        </is>
-      </c>
-      <c r="C19" s="7" t="inlineStr">
-        <is>
-          <t>车站</t>
-        </is>
-      </c>
-      <c r="D19" s="7" t="inlineStr">
-        <is>
-          <t>汕头站东南低压所</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr">
-        <is>
-          <t>传感器故障</t>
-        </is>
-      </c>
-      <c r="F19" s="7" t="inlineStr">
-        <is>
-          <t>2月12日7点，车站通知车间汕头东南所外气体报警装置报警</t>
-        </is>
-      </c>
-      <c r="G19" s="7" t="inlineStr">
-        <is>
-          <t>SF6/Q2气体报警装置传感器损坏导致误报，现场已通知厂家更换传感器</t>
-        </is>
-      </c>
-      <c r="H19" s="7" t="inlineStr">
+    <row r="23" ht="38.4" customHeight="1" s="12">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>2025/5/23</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="inlineStr">
+        <is>
+          <t>郑桂标、吴杰凯</t>
+        </is>
+      </c>
+      <c r="D23" s="7" t="inlineStr">
+        <is>
+          <t>站房东南低压所</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="inlineStr">
+        <is>
+          <t>滤波柜显示故障</t>
+        </is>
+      </c>
+      <c r="F23" s="7" t="inlineStr">
+        <is>
+          <t>5月23日09点20分，巡视站房东南低压所发现，ESD304有源滤波柜显示故障</t>
+        </is>
+      </c>
+      <c r="G23" s="7" t="inlineStr">
+        <is>
+          <t>谐波参数设置不合理，有源滤波柜无法投用</t>
+        </is>
+      </c>
+      <c r="H23" s="7" t="inlineStr">
         <is>
           <t>立行立改</t>
         </is>
       </c>
-      <c r="I19" s="7" t="inlineStr">
-        <is>
-          <t>中铁建设</t>
-        </is>
-      </c>
-      <c r="J19" s="7" t="inlineStr">
-        <is>
-          <t>焦仕亮</t>
-        </is>
-      </c>
-      <c r="K19" s="7" t="inlineStr">
-        <is>
-          <t>现场已通知厂家更换传感器</t>
-        </is>
-      </c>
-      <c r="L19" s="7" t="inlineStr">
-        <is>
-          <t>2025/2/12</t>
-        </is>
-      </c>
-      <c r="M19" s="7" t="inlineStr">
-        <is>
-          <t>焦仕亮</t>
+      <c r="I23" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="J23" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="K23" s="7" t="inlineStr">
+        <is>
+          <t>及时上报施工单位及厂家，要求及时修复</t>
+        </is>
+      </c>
+      <c r="L23" s="7" t="inlineStr">
+        <is>
+          <t>2025.5.23</t>
+        </is>
+      </c>
+      <c r="M23" s="7" t="inlineStr">
+        <is>
+          <t>郑桂标、汪文轩</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录5月.doc</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="41" customHeight="1" s="12">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>2025/2/15</t>
-        </is>
-      </c>
-      <c r="C20" s="7" t="inlineStr">
-        <is>
-          <t>车站</t>
-        </is>
-      </c>
-      <c r="D20" s="7" t="inlineStr">
-        <is>
-          <t>汕头站东南低压所</t>
-        </is>
-      </c>
-      <c r="E20" s="7" t="inlineStr">
-        <is>
-          <t>传感器故障</t>
-        </is>
-      </c>
-      <c r="F20" s="7" t="inlineStr">
-        <is>
-          <t>2月15日9点，车站通知车间汕头东南所外气体报警装置报警</t>
-        </is>
-      </c>
-      <c r="G20" s="7" t="inlineStr">
-        <is>
-          <t>SF6/Q3气体报警装置传感器灵敏度过高导致误报，厂家已设置好定值</t>
-        </is>
-      </c>
-      <c r="H20" s="7" t="inlineStr">
-        <is>
-          <t>立行立改</t>
-        </is>
-      </c>
-      <c r="I20" s="7" t="inlineStr">
-        <is>
-          <t>中铁建设</t>
-        </is>
-      </c>
-      <c r="J20" s="7" t="inlineStr">
-        <is>
-          <t>焦仕亮</t>
-        </is>
-      </c>
-      <c r="K20" s="7" t="inlineStr">
-        <is>
-          <t>已要求厂家重新设置好定值</t>
-        </is>
-      </c>
-      <c r="L20" s="7" t="inlineStr">
-        <is>
-          <t>2025/2/15</t>
-        </is>
-      </c>
-      <c r="M20" s="7" t="inlineStr">
-        <is>
-          <t>焦仕亮</t>
+    <row r="24" ht="52.8" customHeight="1" s="12">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>2025/6/16</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="inlineStr">
+        <is>
+          <t>郑桂标、谢泽彬、焦仕亮</t>
+        </is>
+      </c>
+      <c r="D24" s="7" t="inlineStr">
+        <is>
+          <t>站房东北低压所</t>
+        </is>
+      </c>
+      <c r="E24" s="7" t="inlineStr"/>
+      <c r="F24" s="7" t="inlineStr">
+        <is>
+          <t>东北低压所T2变有源滤波柜END204异常</t>
+        </is>
+      </c>
+      <c r="G24" s="7" t="inlineStr"/>
+      <c r="H24" s="7" t="inlineStr">
+        <is>
+          <t>7月15日</t>
+        </is>
+      </c>
+      <c r="I24" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="J24" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="K24" s="7" t="inlineStr">
+        <is>
+          <t>在厂家指导下采取重启设备、检查通信接口等方法，异常未消失。已要求厂家尽快到现场处理，期间工区要加强设备巡视，及时发现不安全因素</t>
+        </is>
+      </c>
+      <c r="L24" s="7" t="inlineStr"/>
+      <c r="M24" s="7" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录6月.doc</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="41" customHeight="1" s="12">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B21" s="8" t="inlineStr">
-        <is>
-          <t>2025/2/16</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr">
-        <is>
-          <t>调度</t>
-        </is>
-      </c>
-      <c r="D21" s="7" t="inlineStr">
-        <is>
-          <t>汕头站东北低压所</t>
-        </is>
-      </c>
-      <c r="E21" s="7" t="inlineStr">
-        <is>
-          <t>低压开关短路跳闸</t>
-        </is>
-      </c>
-      <c r="F21" s="7" t="inlineStr">
-        <is>
-          <t>低压侧二级开关后端线路短路</t>
-        </is>
-      </c>
-      <c r="G21" s="7" t="inlineStr">
-        <is>
-          <t>联创在低压侧二级开关后端作业，造成线路短路，两级开关都跳闸。</t>
-        </is>
-      </c>
-      <c r="H21" s="7" t="inlineStr">
-        <is>
-          <t>立行立改</t>
-        </is>
-      </c>
-      <c r="I21" s="7" t="inlineStr">
-        <is>
-          <t>联创公司</t>
-        </is>
-      </c>
-      <c r="J21" s="7" t="inlineStr">
-        <is>
-          <t>焦仕亮</t>
-        </is>
-      </c>
-      <c r="K21" s="7" t="inlineStr">
-        <is>
-          <t>要求作业人员分开后端开关，按规范作业，避免短路</t>
-        </is>
-      </c>
-      <c r="L21" s="7" t="inlineStr">
-        <is>
-          <t>2025/2/16</t>
-        </is>
-      </c>
-      <c r="M21" s="7" t="inlineStr">
-        <is>
-          <t>焦仕亮</t>
+    <row r="25" ht="52.8" customHeight="1" s="12">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B25" s="7" t="inlineStr">
+        <is>
+          <t>2025/6/16</t>
+        </is>
+      </c>
+      <c r="C25" s="7" t="inlineStr">
+        <is>
+          <t>郑桂标、谢泽彬、焦仕亮</t>
+        </is>
+      </c>
+      <c r="D25" s="7" t="inlineStr">
+        <is>
+          <t>站房东北低压所</t>
+        </is>
+      </c>
+      <c r="E25" s="7" t="inlineStr"/>
+      <c r="F25" s="7" t="inlineStr">
+        <is>
+          <t>东北低压所T3变有源滤波柜END304异常</t>
+        </is>
+      </c>
+      <c r="G25" s="7" t="inlineStr"/>
+      <c r="H25" s="7" t="inlineStr">
+        <is>
+          <t>7月15日</t>
+        </is>
+      </c>
+      <c r="I25" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="J25" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="K25" s="7" t="inlineStr">
+        <is>
+          <t>在厂家指导下采取重启设备、检查通信接口等方法，异常未消失。已要求厂家尽快到现场处理，期间工区要加强设备巡视，及时发现不安全因素</t>
+        </is>
+      </c>
+      <c r="L25" s="7" t="inlineStr"/>
+      <c r="M25" s="7" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录6月.doc</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="46.2" customHeight="1" s="12">
-      <c r="A22" s="7" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B22" s="8" t="inlineStr">
-        <is>
-          <t>2025/4/7</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr">
-        <is>
-          <t>调度</t>
-        </is>
-      </c>
-      <c r="D22" s="7" t="inlineStr">
-        <is>
-          <t>汕头行车公寓低压所</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="inlineStr">
-        <is>
-          <t>低压侧二级开关上端短路</t>
-        </is>
-      </c>
-      <c r="F22" s="7" t="inlineStr">
-        <is>
-          <t>4月7日14点20分，接车间李主任通知公寓楼低压所D2-9-1公寓楼4层总开关跳闸</t>
-        </is>
-      </c>
-      <c r="G22" s="7" t="inlineStr">
-        <is>
-          <t>公寓楼4层L-4-2开关箱电缆进口封堵作业过程中，工具掉落在二级开关上端头，造成线路短路，一级开关跳闸。</t>
-        </is>
-      </c>
-      <c r="H22" s="7" t="inlineStr">
-        <is>
-          <t>立行立改</t>
-        </is>
-      </c>
-      <c r="I22" s="7" t="inlineStr">
-        <is>
-          <t>公寓车间</t>
-        </is>
-      </c>
-      <c r="J22" s="7" t="inlineStr">
-        <is>
-          <t>洪映森</t>
-        </is>
-      </c>
-      <c r="K22" s="7" t="inlineStr">
-        <is>
-          <t>要求作业人员检查后端设备，确认线路正常后再申请送电，并要按规范作业，确保人身、设备安全</t>
-        </is>
-      </c>
-      <c r="L22" s="7" t="inlineStr">
-        <is>
-          <t>2025/4/7</t>
-        </is>
-      </c>
-      <c r="M22" s="7" t="inlineStr">
-        <is>
-          <t>吴杰凯</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="41" customHeight="1" s="12">
-      <c r="A23" s="7" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B23" s="8" t="inlineStr">
-        <is>
-          <t>2025/5/23</t>
-        </is>
-      </c>
-      <c r="C23" s="7" t="inlineStr">
-        <is>
-          <t>郑桂标、吴杰凯</t>
-        </is>
-      </c>
-      <c r="D23" s="7" t="inlineStr">
-        <is>
-          <t>柴油发电机房</t>
-        </is>
-      </c>
-      <c r="E23" s="7" t="inlineStr">
-        <is>
-          <t>空调管漏水</t>
-        </is>
-      </c>
-      <c r="F23" s="7" t="inlineStr">
-        <is>
-          <t>5月23日09点40分，巡视发电机房发现油料房房顶空调管冷凝水滴落，造成地板小积水</t>
-        </is>
-      </c>
-      <c r="G23" s="7" t="inlineStr">
-        <is>
-          <t>空调排水管排水不畅</t>
-        </is>
-      </c>
-      <c r="H23" s="7" t="inlineStr">
-        <is>
-          <t>立行立改</t>
-        </is>
-      </c>
-      <c r="I23" s="7" t="inlineStr">
-        <is>
-          <t>洪映森</t>
-        </is>
-      </c>
-      <c r="J23" s="7" t="inlineStr">
-        <is>
-          <t>郭新城</t>
-        </is>
-      </c>
-      <c r="K23" s="7" t="inlineStr">
-        <is>
-          <t>及时上报施工单位及厂家，要求及时修复</t>
-        </is>
-      </c>
-      <c r="L23" s="7" t="inlineStr">
-        <is>
-          <t>2025.6.6</t>
-        </is>
-      </c>
-      <c r="M23" s="7" t="inlineStr">
-        <is>
-          <t>洪映森、汪文轩</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="41" customHeight="1" s="12">
-      <c r="A24" s="7" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B24" s="8" t="inlineStr">
-        <is>
-          <t>2025/5/23</t>
-        </is>
-      </c>
-      <c r="C24" s="7" t="inlineStr">
-        <is>
-          <t>郑桂标、吴杰凯</t>
-        </is>
-      </c>
-      <c r="D24" s="7" t="inlineStr">
-        <is>
-          <t>站房东北低压所</t>
-        </is>
-      </c>
-      <c r="E24" s="7" t="inlineStr">
-        <is>
-          <t>滤波柜显示故障</t>
-        </is>
-      </c>
-      <c r="F24" s="7" t="inlineStr">
-        <is>
-          <t>5月23日09点00分，巡视站房东北低压所发现，END603有源滤波柜显示故障</t>
-        </is>
-      </c>
-      <c r="G24" s="7" t="inlineStr">
-        <is>
-          <t>谐波参数设置不合理，有源滤波柜无法投用</t>
-        </is>
-      </c>
-      <c r="H24" s="7" t="inlineStr">
-        <is>
-          <t>立行立改</t>
-        </is>
-      </c>
-      <c r="I24" s="7" t="inlineStr">
-        <is>
-          <t>洪映森</t>
-        </is>
-      </c>
-      <c r="J24" s="7" t="inlineStr">
-        <is>
-          <t>郭新城</t>
-        </is>
-      </c>
-      <c r="K24" s="7" t="inlineStr">
-        <is>
-          <t>及时上报施工单位及厂家，要求及时修复</t>
-        </is>
-      </c>
-      <c r="L24" s="7" t="inlineStr">
-        <is>
-          <t>2025.5.23</t>
-        </is>
-      </c>
-      <c r="M24" s="7" t="inlineStr">
-        <is>
-          <t>郑桂标、汪文轩</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="41" customHeight="1" s="12">
-      <c r="A25" s="7" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B25" s="8" t="inlineStr">
-        <is>
-          <t>2025/5/23</t>
-        </is>
-      </c>
-      <c r="C25" s="7" t="inlineStr">
-        <is>
-          <t>郑桂标、吴杰凯</t>
-        </is>
-      </c>
-      <c r="D25" s="7" t="inlineStr">
-        <is>
-          <t>站房东南低压所</t>
-        </is>
-      </c>
-      <c r="E25" s="7" t="inlineStr">
-        <is>
-          <t>滤波柜显示故障</t>
-        </is>
-      </c>
-      <c r="F25" s="7" t="inlineStr">
-        <is>
-          <t>5月23日09点20分，巡视站房东南低压所发现，ESD304有源滤波柜显示故障</t>
-        </is>
-      </c>
-      <c r="G25" s="7" t="inlineStr">
-        <is>
-          <t>谐波参数设置不合理，有源滤波柜无法投用</t>
-        </is>
-      </c>
-      <c r="H25" s="7" t="inlineStr">
-        <is>
-          <t>立行立改</t>
-        </is>
-      </c>
-      <c r="I25" s="7" t="inlineStr">
-        <is>
-          <t>洪映森</t>
-        </is>
-      </c>
-      <c r="J25" s="7" t="inlineStr">
-        <is>
-          <t>郭新城</t>
-        </is>
-      </c>
-      <c r="K25" s="7" t="inlineStr">
-        <is>
-          <t>及时上报施工单位及厂家，要求及时修复</t>
-        </is>
-      </c>
-      <c r="L25" s="7" t="inlineStr">
-        <is>
-          <t>2025.5.23</t>
-        </is>
-      </c>
-      <c r="M25" s="7" t="inlineStr">
-        <is>
-          <t>郑桂标、汪文轩</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="52.8" customHeight="1" s="12">
+    <row r="26" ht="30.6" customHeight="1" s="12">
       <c r="A26" s="7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
-        <is>
-          <t>2025/6/16</t>
+      <c r="B26" s="7" t="inlineStr">
+        <is>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="C26" s="7" t="inlineStr">
         <is>
-          <t>郑桂标、谢泽彬、焦仕亮</t>
+          <t>洪映森、谢泽彬</t>
         </is>
       </c>
       <c r="D26" s="7" t="inlineStr">
         <is>
-          <t>站房东北低压所</t>
+          <t>站区配电所小电阻室</t>
         </is>
       </c>
       <c r="E26" s="7" t="inlineStr"/>
       <c r="F26" s="7" t="inlineStr">
         <is>
-          <t>东北低压所T2变有源滤波柜END204异常</t>
-        </is>
-      </c>
-      <c r="G26" s="7" t="inlineStr"/>
+          <t>站区配电所一级侧、综合侧小电阻柜内显明灯不亮（3W）</t>
+        </is>
+      </c>
+      <c r="G26" s="7" t="inlineStr">
+        <is>
+          <t>照明灯损坏</t>
+        </is>
+      </c>
       <c r="H26" s="7" t="inlineStr">
         <is>
-          <t>7月15日</t>
+          <t>2025.7.31</t>
         </is>
       </c>
       <c r="I26" s="7" t="inlineStr">
@@ -2465,45 +2753,50 @@
           <t>郭新城</t>
         </is>
       </c>
-      <c r="K26" s="7" t="inlineStr">
-        <is>
-          <t>在厂家指导下采取重启设备、检查通信接口等方法，异常未消失。已要求厂家尽快到现场处理，期间工区要加强设备巡视，及时发现不安全因素</t>
-        </is>
-      </c>
+      <c r="K26" s="7" t="inlineStr"/>
       <c r="L26" s="7" t="inlineStr"/>
       <c r="M26" s="7" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录7月.doc</t>
+        </is>
+      </c>
     </row>
-    <row r="27" ht="52.8" customHeight="1" s="12">
+    <row r="27" ht="28.8" customHeight="1" s="12">
       <c r="A27" s="7" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="B27" s="8" t="inlineStr">
-        <is>
-          <t>2025/6/16</t>
+      <c r="B27" s="7" t="inlineStr">
+        <is>
+          <t>2025/8/7</t>
         </is>
       </c>
       <c r="C27" s="7" t="inlineStr">
         <is>
-          <t>郑桂标、谢泽彬、焦仕亮</t>
+          <t>调度</t>
         </is>
       </c>
       <c r="D27" s="7" t="inlineStr">
         <is>
-          <t>站房东北低压所</t>
+          <t>汕头高铁配电所</t>
         </is>
       </c>
       <c r="E27" s="7" t="inlineStr"/>
       <c r="F27" s="7" t="inlineStr">
         <is>
-          <t>东北低压所T3变有源滤波柜END304异常</t>
-        </is>
-      </c>
-      <c r="G27" s="7" t="inlineStr"/>
+          <t>8月7日凌晨3点50分接到车间通知调度后台报警</t>
+        </is>
+      </c>
+      <c r="G27" s="7" t="inlineStr">
+        <is>
+          <t>经综合分析判断为浪涌保护器质量问题造成</t>
+        </is>
+      </c>
       <c r="H27" s="7" t="inlineStr">
         <is>
-          <t>7月15日</t>
+          <t>2025/9/30</t>
         </is>
       </c>
       <c r="I27" s="7" t="inlineStr">
@@ -2518,47 +2811,52 @@
       </c>
       <c r="K27" s="7" t="inlineStr">
         <is>
-          <t>在厂家指导下采取重启设备、检查通信接口等方法，异常未消失。已要求厂家尽快到现场处理，期间工区要加强设备巡视，及时发现不安全因素</t>
+          <t>通知惠州检修工区及时更换损坏的浪涌保护器。</t>
         </is>
       </c>
       <c r="L27" s="7" t="inlineStr"/>
       <c r="M27" s="7" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录8月.doc</t>
+        </is>
+      </c>
     </row>
-    <row r="28" ht="41" customHeight="1" s="12">
+    <row r="28" ht="44.4" customHeight="1" s="12">
       <c r="A28" s="7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B28" s="8" t="inlineStr">
-        <is>
-          <t>2025/07/08</t>
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>2025/9/23</t>
         </is>
       </c>
       <c r="C28" s="7" t="inlineStr">
         <is>
-          <t>洪映森、谢泽彬</t>
+          <t>调度</t>
         </is>
       </c>
       <c r="D28" s="7" t="inlineStr">
         <is>
-          <t>站区配电所小电阻室</t>
+          <t>汕头站停车场箱变</t>
         </is>
       </c>
       <c r="E28" s="7" t="inlineStr"/>
       <c r="F28" s="7" t="inlineStr">
         <is>
-          <t>站区配电所一级侧、综合侧小电阻柜内显明灯不亮（3W）</t>
+          <t>9月23日凌晨0点15分接到车间通知，调度后台报警，D1-5低压开关跳闸</t>
         </is>
       </c>
       <c r="G28" s="7" t="inlineStr">
         <is>
-          <t>照明灯损坏</t>
+          <t>经检查发现汕头站南侧雨棚停车场岗亭被汽车乱碰变形，造成室内电气线路瞬时短路，D1-5低压开关跳闸。</t>
         </is>
       </c>
       <c r="H28" s="7" t="inlineStr">
         <is>
-          <t>2025.7.31</t>
+          <t>立行立改</t>
         </is>
       </c>
       <c r="I28" s="7" t="inlineStr">
@@ -2571,24 +2869,41 @@
           <t>郭新城</t>
         </is>
       </c>
-      <c r="K28" s="7" t="inlineStr"/>
-      <c r="L28" s="7" t="inlineStr"/>
-      <c r="M28" s="7" t="inlineStr"/>
+      <c r="K28" s="7" t="inlineStr">
+        <is>
+          <t>经检查线路无异常，送电后设备运行正常</t>
+        </is>
+      </c>
+      <c r="L28" s="7" t="inlineStr">
+        <is>
+          <t>2025/9/23</t>
+        </is>
+      </c>
+      <c r="M28" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录9月.doc</t>
+        </is>
+      </c>
     </row>
-    <row r="29" ht="41" customHeight="1" s="12">
+    <row r="29" ht="27.6" customHeight="1" s="12">
       <c r="A29" s="7" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="B29" s="8" t="inlineStr">
-        <is>
-          <t>2025/8/7</t>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>2026/01/06</t>
         </is>
       </c>
       <c r="C29" s="7" t="inlineStr">
         <is>
-          <t>调度</t>
+          <t>焦仕亮、郑桂标、王振豪</t>
         </is>
       </c>
       <c r="D29" s="7" t="inlineStr">
@@ -2599,17 +2914,17 @@
       <c r="E29" s="7" t="inlineStr"/>
       <c r="F29" s="7" t="inlineStr">
         <is>
-          <t>8月7日凌晨3点50分接到车间通知调度后台报警</t>
+          <t>站区配电所交流屏的J01电操损坏，需要更换</t>
         </is>
       </c>
       <c r="G29" s="7" t="inlineStr">
         <is>
-          <t>经综合分析判断为浪涌保护器质量问题造成</t>
+          <t>设备质量问题</t>
         </is>
       </c>
       <c r="H29" s="7" t="inlineStr">
         <is>
-          <t>2025/9/30</t>
+          <t>2026/02/30</t>
         </is>
       </c>
       <c r="I29" s="7" t="inlineStr">
@@ -2622,49 +2937,50 @@
           <t>郭新城</t>
         </is>
       </c>
-      <c r="K29" s="7" t="inlineStr">
-        <is>
-          <t>通知惠州检修工区及时更换损坏的浪涌保护器。</t>
-        </is>
-      </c>
+      <c r="K29" s="7" t="inlineStr"/>
       <c r="L29" s="7" t="inlineStr"/>
       <c r="M29" s="7" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\26\广供-002：设备缺陷处理问题库及设备缺陷处理记录1月.doc</t>
+        </is>
+      </c>
     </row>
-    <row r="30" ht="44.4" customHeight="1" s="12">
+    <row r="30" ht="31.8" customHeight="1" s="12">
       <c r="A30" s="7" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="B30" s="8" t="inlineStr">
-        <is>
-          <t>2025/9/23</t>
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>2026/01/06</t>
         </is>
       </c>
       <c r="C30" s="7" t="inlineStr">
         <is>
-          <t>调度</t>
+          <t>焦仕亮、郑桂标、王振豪</t>
         </is>
       </c>
       <c r="D30" s="7" t="inlineStr">
         <is>
-          <t>汕头站停车场箱变</t>
+          <t>汕头高铁配电所</t>
         </is>
       </c>
       <c r="E30" s="7" t="inlineStr"/>
       <c r="F30" s="7" t="inlineStr">
         <is>
-          <t>9月23日凌晨0点15分接到车间通知，调度后台报警，D1-5低压开关跳闸</t>
+          <t>站区配电所一号所用变的YQF1开关本体脱扣损坏，需要更换</t>
         </is>
       </c>
       <c r="G30" s="7" t="inlineStr">
         <is>
-          <t>经检查发现汕头站南侧雨棚停车场岗亭被汽车乱碰变形，造成室内电气线路瞬时短路，D1-5低压开关跳闸。</t>
+          <t>设备质量问题</t>
         </is>
       </c>
       <c r="H30" s="7" t="inlineStr">
         <is>
-          <t>立行立改</t>
+          <t>2026/02/30</t>
         </is>
       </c>
       <c r="I30" s="7" t="inlineStr">
@@ -2677,19 +2993,12 @@
           <t>郭新城</t>
         </is>
       </c>
-      <c r="K30" s="7" t="inlineStr">
-        <is>
-          <t>经检查线路无异常，送电后设备运行正常</t>
-        </is>
-      </c>
-      <c r="L30" s="7" t="inlineStr">
-        <is>
-          <t>2025/9/23</t>
-        </is>
-      </c>
-      <c r="M30" s="7" t="inlineStr">
-        <is>
-          <t>洪映森</t>
+      <c r="K30" s="7" t="inlineStr"/>
+      <c r="L30" s="7" t="inlineStr"/>
+      <c r="M30" s="7" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\26\广供-002：设备缺陷处理问题库及设备缺陷处理记录1月.doc</t>
         </is>
       </c>
     </row>

--- a/设备缺陷问题库（日常巡视、故障处理问题库，广供记-002汇总表，202601起）.xlsx
+++ b/设备缺陷问题库（日常巡视、故障处理问题库，广供记-002汇总表，202601起）.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -31,12 +31,6 @@
       <color theme="1"/>
       <sz val="14"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="仿宋"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="9"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -183,18 +177,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -568,52 +556,55 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyAlignment="1">
@@ -628,77 +619,74 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,18 +705,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1117,10 +1093,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A1" sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="21.95" customHeight="1"/>
@@ -1129,19 +1105,19 @@
     <col width="12.8761061946903" customWidth="1" style="1" min="2" max="2"/>
     <col width="28.6371681415929" customWidth="1" style="1" min="3" max="3"/>
     <col width="14.7522123893805" customWidth="1" style="1" min="4" max="4"/>
-    <col width="12.8761061946903" customWidth="1" style="1" min="5" max="5"/>
+    <col width="17.0265486725664" customWidth="1" style="1" min="5" max="5"/>
     <col width="61.4778761061947" customWidth="1" style="2" min="6" max="6"/>
-    <col width="41.8141592920354" customWidth="1" style="1" min="7" max="7"/>
+    <col width="49.1238938053097" customWidth="1" style="1" min="7" max="7"/>
     <col width="11.3716814159292" customWidth="1" style="1" min="8" max="8"/>
     <col width="11" customWidth="1" style="1" min="9" max="9"/>
     <col width="11.1238938053097" customWidth="1" style="1" min="10" max="10"/>
-    <col width="24.6283185840708" customWidth="1" style="1" min="11" max="11"/>
+    <col width="37.8938053097345" customWidth="1" style="1" min="11" max="11"/>
     <col width="9.628318584070801" customWidth="1" style="1" min="12" max="12"/>
     <col width="10.8761061946903" customWidth="1" style="1" min="13" max="13"/>
     <col hidden="1" width="9" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.95" customHeight="1" s="12">
+    <row r="1" ht="30.95" customHeight="1" s="8">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>设备缺陷处理问题库及设备缺陷处理记录（广供记-002汇总表）</t>
@@ -1160,7 +1136,7 @@
       <c r="L1" s="4" t="n"/>
       <c r="M1" s="5" t="n"/>
     </row>
-    <row r="2" ht="13.5" customHeight="1" s="12">
+    <row r="2" ht="13.5" customHeight="1" s="8">
       <c r="A2" s="6" t="inlineStr">
         <is>
           <t>工区：汕头电力二工区                                                                                                      时间：2026年1月4日</t>
@@ -1179,7 +1155,7 @@
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="5" t="n"/>
     </row>
-    <row r="3" ht="13.5" customHeight="1" s="12">
+    <row r="3" ht="13.5" customHeight="1" s="8">
       <c r="A3" s="7" t="inlineStr">
         <is>
           <t>序号</t>
@@ -1246,7 +1222,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="60.6" customHeight="1" s="12">
+    <row r="4" ht="60.6" customHeight="1" s="8">
       <c r="A4" s="7" t="inlineStr">
         <is>
           <t>1</t>
@@ -1312,13 +1288,13 @@
           <t>洪映森</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录10月.doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="37.2" customHeight="1" s="12">
+      <c r="N4" s="0" t="inlineStr">
+        <is>
+          <t>E:/QC-攻关小组/正在进行项目/设备故障统计/3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录10月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="37.2" customHeight="1" s="8">
       <c r="A5" s="7" t="inlineStr">
         <is>
           <t>2</t>
@@ -1372,13 +1348,13 @@
       <c r="K5" s="7" t="inlineStr"/>
       <c r="L5" s="7" t="inlineStr"/>
       <c r="M5" s="7" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录10月.doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="23.4" customHeight="1" s="12">
+      <c r="N5" s="0" t="inlineStr">
+        <is>
+          <t>E:/QC-攻关小组/正在进行项目/设备故障统计/3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录10月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="23.4" customHeight="1" s="8">
       <c r="A6" s="7" t="inlineStr">
         <is>
           <t>3</t>
@@ -1436,13 +1412,13 @@
       </c>
       <c r="L6" s="7" t="inlineStr"/>
       <c r="M6" s="7" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录11月.doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="27" customHeight="1" s="12">
+      <c r="N6" s="0" t="inlineStr">
+        <is>
+          <t>E:/QC-攻关小组/正在进行项目/设备故障统计/3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录11月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="27" customHeight="1" s="8">
       <c r="A7" s="7" t="inlineStr">
         <is>
           <t>4</t>
@@ -1508,13 +1484,13 @@
           <t>洪映森</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录11月.doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="27" customHeight="1" s="12">
+      <c r="N7" s="0" t="inlineStr">
+        <is>
+          <t>E:/QC-攻关小组/正在进行项目/设备故障统计/3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录11月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="27" customHeight="1" s="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
           <t>5</t>
@@ -1580,13 +1556,13 @@
           <t>洪映森</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录11月.doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="22.2" customHeight="1" s="12">
+      <c r="N8" s="0" t="inlineStr">
+        <is>
+          <t>E:/QC-攻关小组/正在进行项目/设备故障统计/3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录11月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="22.2" customHeight="1" s="8">
       <c r="A9" s="7" t="inlineStr">
         <is>
           <t>6</t>
@@ -1652,13 +1628,13 @@
           <t>洪映森</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录11月.doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="25.2" customHeight="1" s="12">
+      <c r="N9" s="0" t="inlineStr">
+        <is>
+          <t>E:/QC-攻关小组/正在进行项目/设备故障统计/3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录11月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="25.2" customHeight="1" s="8">
       <c r="A10" s="7" t="inlineStr">
         <is>
           <t>7</t>
@@ -1724,13 +1700,13 @@
           <t>洪映森</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录11月.doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="25.8" customHeight="1" s="12">
+      <c r="N10" s="0" t="inlineStr">
+        <is>
+          <t>E:/QC-攻关小组/正在进行项目/设备故障统计/3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录11月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="25.8" customHeight="1" s="8">
       <c r="A11" s="7" t="inlineStr">
         <is>
           <t>8</t>
@@ -1788,13 +1764,13 @@
       </c>
       <c r="L11" s="7" t="inlineStr"/>
       <c r="M11" s="7" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录11月.doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="33" customHeight="1" s="12">
+      <c r="N11" s="0" t="inlineStr">
+        <is>
+          <t>E:/QC-攻关小组/正在进行项目/设备故障统计/3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录11月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="33" customHeight="1" s="8">
       <c r="A12" s="7" t="inlineStr">
         <is>
           <t>9</t>
@@ -1860,13 +1836,13 @@
           <t>郑桂标</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录12月.doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="39" customHeight="1" s="12">
+      <c r="N12" s="0" t="inlineStr">
+        <is>
+          <t>E:/QC-攻关小组/正在进行项目/设备故障统计/3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录12月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="39" customHeight="1" s="8">
       <c r="A13" s="7" t="inlineStr">
         <is>
           <t>10</t>
@@ -1928,13 +1904,13 @@
           <t>洪映森</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录11月.doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="34.2" customHeight="1" s="12">
+      <c r="N13" s="0" t="inlineStr">
+        <is>
+          <t>E:/QC-攻关小组/正在进行项目/设备故障统计/3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录11月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="34.2" customHeight="1" s="8">
       <c r="A14" s="7" t="inlineStr">
         <is>
           <t>11</t>
@@ -1980,13 +1956,13 @@
       <c r="K14" s="7" t="inlineStr"/>
       <c r="L14" s="7" t="inlineStr"/>
       <c r="M14" s="7" t="inlineStr"/>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录12月.doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="35.40000000000001" customHeight="1" s="12">
+      <c r="N14" s="0" t="inlineStr">
+        <is>
+          <t>E:/QC-攻关小组/正在进行项目/设备故障统计/3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录12月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="35.40000000000001" customHeight="1" s="8">
       <c r="A15" s="7" t="inlineStr">
         <is>
           <t>12</t>
@@ -2032,13 +2008,13 @@
       <c r="K15" s="7" t="inlineStr"/>
       <c r="L15" s="7" t="inlineStr"/>
       <c r="M15" s="7" t="inlineStr"/>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录12月.doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="71.39999999999999" customHeight="1" s="12">
+      <c r="N15" s="0" t="inlineStr">
+        <is>
+          <t>E:/QC-攻关小组/正在进行项目/设备故障统计/3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录12月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="71.39999999999999" customHeight="1" s="8">
       <c r="A16" s="7" t="inlineStr">
         <is>
           <t>13</t>
@@ -2084,13 +2060,13 @@
       <c r="K16" s="7" t="inlineStr"/>
       <c r="L16" s="7" t="inlineStr"/>
       <c r="M16" s="7" t="inlineStr"/>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录12月.doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="35.40000000000001" customHeight="1" s="12">
+      <c r="N16" s="0" t="inlineStr">
+        <is>
+          <t>E:/QC-攻关小组/正在进行项目/设备故障统计/3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录12月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="35.40000000000001" customHeight="1" s="8">
       <c r="A17" s="7" t="inlineStr">
         <is>
           <t>14</t>
@@ -2156,13 +2132,13 @@
           <t>焦仕亮</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录2月.doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="34.8" customHeight="1" s="12">
+      <c r="N17" s="0" t="inlineStr">
+        <is>
+          <t>E:/QC-攻关小组/正在进行项目/设备故障统计/3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录2月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="34.8" customHeight="1" s="8">
       <c r="A18" s="7" t="inlineStr">
         <is>
           <t>15</t>
@@ -2228,13 +2204,13 @@
           <t>焦仕亮</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录2月.doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="33" customHeight="1" s="12">
+      <c r="N18" s="0" t="inlineStr">
+        <is>
+          <t>E:/QC-攻关小组/正在进行项目/设备故障统计/3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录2月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="33" customHeight="1" s="8">
       <c r="A19" s="7" t="inlineStr">
         <is>
           <t>16</t>
@@ -2300,13 +2276,13 @@
           <t>焦仕亮</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录2月.doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="46.2" customHeight="1" s="12">
+      <c r="N19" s="0" t="inlineStr">
+        <is>
+          <t>E:/QC-攻关小组/正在进行项目/设备故障统计/3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录2月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="46.2" customHeight="1" s="8">
       <c r="A20" s="7" t="inlineStr">
         <is>
           <t>17</t>
@@ -2372,13 +2348,13 @@
           <t>吴杰凯</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录4月.doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="39.59999999999999" customHeight="1" s="12">
+      <c r="N20" s="0" t="inlineStr">
+        <is>
+          <t>E:/QC-攻关小组/正在进行项目/设备故障统计/3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录4月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="39.59999999999999" customHeight="1" s="8">
       <c r="A21" s="7" t="inlineStr">
         <is>
           <t>18</t>
@@ -2444,13 +2420,13 @@
           <t>洪映森、汪文轩</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录5月.doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="38.4" customHeight="1" s="12">
+      <c r="N21" s="0" t="inlineStr">
+        <is>
+          <t>E:/QC-攻关小组/正在进行项目/设备故障统计/3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录5月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="38.4" customHeight="1" s="8">
       <c r="A22" s="7" t="inlineStr">
         <is>
           <t>19</t>
@@ -2516,13 +2492,13 @@
           <t>郑桂标、汪文轩</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录5月.doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="38.4" customHeight="1" s="12">
+      <c r="N22" s="0" t="inlineStr">
+        <is>
+          <t>E:/QC-攻关小组/正在进行项目/设备故障统计/3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录5月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="38.4" customHeight="1" s="8">
       <c r="A23" s="7" t="inlineStr">
         <is>
           <t>20</t>
@@ -2588,13 +2564,13 @@
           <t>郑桂标、汪文轩</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录5月.doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="52.8" customHeight="1" s="12">
+      <c r="N23" s="0" t="inlineStr">
+        <is>
+          <t>E:/QC-攻关小组/正在进行项目/设备故障统计/3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录5月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="52.8" customHeight="1" s="8">
       <c r="A24" s="7" t="inlineStr">
         <is>
           <t>21</t>
@@ -2644,13 +2620,13 @@
       </c>
       <c r="L24" s="7" t="inlineStr"/>
       <c r="M24" s="7" t="inlineStr"/>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录6月.doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="52.8" customHeight="1" s="12">
+      <c r="N24" s="0" t="inlineStr">
+        <is>
+          <t>E:/QC-攻关小组/正在进行项目/设备故障统计/3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录6月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="52.8" customHeight="1" s="8">
       <c r="A25" s="7" t="inlineStr">
         <is>
           <t>22</t>
@@ -2700,13 +2676,13 @@
       </c>
       <c r="L25" s="7" t="inlineStr"/>
       <c r="M25" s="7" t="inlineStr"/>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录6月.doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="30.6" customHeight="1" s="12">
+      <c r="N25" s="0" t="inlineStr">
+        <is>
+          <t>E:/QC-攻关小组/正在进行项目/设备故障统计/3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录6月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="30.6" customHeight="1" s="8">
       <c r="A26" s="7" t="inlineStr">
         <is>
           <t>23</t>
@@ -2756,13 +2732,13 @@
       <c r="K26" s="7" t="inlineStr"/>
       <c r="L26" s="7" t="inlineStr"/>
       <c r="M26" s="7" t="inlineStr"/>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录7月.doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="28.8" customHeight="1" s="12">
+      <c r="N26" s="0" t="inlineStr">
+        <is>
+          <t>E:/QC-攻关小组/正在进行项目/设备故障统计/3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录7月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="28.8" customHeight="1" s="8">
       <c r="A27" s="7" t="inlineStr">
         <is>
           <t>24</t>
@@ -2816,13 +2792,13 @@
       </c>
       <c r="L27" s="7" t="inlineStr"/>
       <c r="M27" s="7" t="inlineStr"/>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录8月.doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="44.4" customHeight="1" s="12">
+      <c r="N27" s="0" t="inlineStr">
+        <is>
+          <t>E:/QC-攻关小组/正在进行项目/设备故障统计/3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录8月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="44.4" customHeight="1" s="8">
       <c r="A28" s="7" t="inlineStr">
         <is>
           <t>25</t>
@@ -2884,13 +2860,13 @@
           <t>洪映森</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录9月.doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="27.6" customHeight="1" s="12">
+      <c r="N28" s="0" t="inlineStr">
+        <is>
+          <t>E:/QC-攻关小组/正在进行项目/设备故障统计/3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录9月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="27.6" customHeight="1" s="8">
       <c r="A29" s="7" t="inlineStr">
         <is>
           <t>26</t>
@@ -2940,13 +2916,13 @@
       <c r="K29" s="7" t="inlineStr"/>
       <c r="L29" s="7" t="inlineStr"/>
       <c r="M29" s="7" t="inlineStr"/>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\26\广供-002：设备缺陷处理问题库及设备缺陷处理记录1月.doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="31.8" customHeight="1" s="12">
+      <c r="N29" s="0" t="inlineStr">
+        <is>
+          <t>E:/QC-攻关小组/正在进行项目/设备故障统计/3-设备缺陷问题库及设备缺陷处理记录\26\广供-002：设备缺陷处理问题库及设备缺陷处理记录1月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="31.8" customHeight="1" s="8">
       <c r="A30" s="7" t="inlineStr">
         <is>
           <t>27</t>
@@ -2996,12 +2972,277 @@
       <c r="K30" s="7" t="inlineStr"/>
       <c r="L30" s="7" t="inlineStr"/>
       <c r="M30" s="7" t="inlineStr"/>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\26\广供-002：设备缺陷处理问题库及设备缺陷处理记录1月.doc</t>
-        </is>
-      </c>
-    </row>
+      <c r="N30" s="0" t="inlineStr">
+        <is>
+          <t>E:/QC-攻关小组/正在进行项目/设备故障统计/3-设备缺陷问题库及设备缺陷处理记录\26\广供-002：设备缺陷处理问题库及设备缺陷处理记录1月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="60.6" customHeight="1" s="8">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B31" s="7" t="inlineStr">
+        <is>
+          <t>2024.10.11</t>
+        </is>
+      </c>
+      <c r="C31" s="7" t="inlineStr">
+        <is>
+          <t>郭新城、洪映森</t>
+        </is>
+      </c>
+      <c r="D31" s="7" t="inlineStr">
+        <is>
+          <t>汕头高铁配电所</t>
+        </is>
+      </c>
+      <c r="E31" s="7" t="inlineStr">
+        <is>
+          <t>二次接线</t>
+        </is>
+      </c>
+      <c r="F31" s="7" t="inlineStr">
+        <is>
+          <t>一级贯通调压器小电阻接地二次回路存在两点接地</t>
+        </is>
+      </c>
+      <c r="G31" s="7" t="inlineStr">
+        <is>
+          <t>高压柜厂家已在柜中有一点接地，小电阻零序电流互感器二次回路接线人员在小电阻柜内又一次接地，双方均未提醒、确认对方的接线方式，复测人员也未能及时发现此问题</t>
+        </is>
+      </c>
+      <c r="H31" s="7" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="I31" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="J31" s="7" t="inlineStr">
+        <is>
+          <t>李海东</t>
+        </is>
+      </c>
+      <c r="K31" s="7" t="inlineStr">
+        <is>
+          <t>10月22、23日，天窗点内对配电所一段、二段母线停电，拆除重复接地点</t>
+        </is>
+      </c>
+      <c r="L31" s="7" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="M31" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="N31" s="0" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录10月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="37.2" customHeight="1" s="8">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B32" s="7" t="inlineStr">
+        <is>
+          <t>2024.10.22</t>
+        </is>
+      </c>
+      <c r="C32" s="7" t="inlineStr">
+        <is>
+          <t>郭新城、洪映森</t>
+        </is>
+      </c>
+      <c r="D32" s="7" t="inlineStr">
+        <is>
+          <t>汕头高铁配电所</t>
+        </is>
+      </c>
+      <c r="E32" s="7" t="inlineStr">
+        <is>
+          <t>二次接线</t>
+        </is>
+      </c>
+      <c r="F32" s="7" t="inlineStr">
+        <is>
+          <t>一级贯通、综合贯通调压器小电阻接地二次接线存在感应电流</t>
+        </is>
+      </c>
+      <c r="G32" s="7" t="inlineStr">
+        <is>
+          <t>小电阻接地二次线路与柜门电磁锁电源线路为同一根的四芯电缆，运行中存在感应电</t>
+        </is>
+      </c>
+      <c r="H32" s="7" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="I32" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="J32" s="7" t="inlineStr">
+        <is>
+          <t>李海东</t>
+        </is>
+      </c>
+      <c r="K32" s="7" t="inlineStr"/>
+      <c r="L32" s="7" t="inlineStr"/>
+      <c r="M32" s="7" t="inlineStr"/>
+      <c r="N32" s="0" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录10月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="60.6" customHeight="1" s="8">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B33" s="7" t="inlineStr">
+        <is>
+          <t>2024.10.11</t>
+        </is>
+      </c>
+      <c r="C33" s="7" t="inlineStr">
+        <is>
+          <t>郭新城、洪映森</t>
+        </is>
+      </c>
+      <c r="D33" s="7" t="inlineStr">
+        <is>
+          <t>汕头高铁配电所</t>
+        </is>
+      </c>
+      <c r="E33" s="7" t="inlineStr">
+        <is>
+          <t>二次接线</t>
+        </is>
+      </c>
+      <c r="F33" s="7" t="inlineStr">
+        <is>
+          <t>一级贯通调压器小电阻接地二次回路存在两点接地</t>
+        </is>
+      </c>
+      <c r="G33" s="7" t="inlineStr">
+        <is>
+          <t>高压柜厂家已在柜中有一点接地，小电阻零序电流互感器二次回路接线人员在小电阻柜内又一次接地，双方均未提醒、确认对方的接线方式，复测人员也未能及时发现此问题</t>
+        </is>
+      </c>
+      <c r="H33" s="7" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="I33" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="J33" s="7" t="inlineStr">
+        <is>
+          <t>李海东</t>
+        </is>
+      </c>
+      <c r="K33" s="7" t="inlineStr">
+        <is>
+          <t>10月22、23日，天窗点内对配电所一段、二段母线停电，拆除重复接地点</t>
+        </is>
+      </c>
+      <c r="L33" s="7" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="M33" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录10月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="37.2" customHeight="1" s="8">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B34" s="7" t="inlineStr">
+        <is>
+          <t>2024.10.22</t>
+        </is>
+      </c>
+      <c r="C34" s="7" t="inlineStr">
+        <is>
+          <t>郭新城、洪映森</t>
+        </is>
+      </c>
+      <c r="D34" s="7" t="inlineStr">
+        <is>
+          <t>汕头高铁配电所</t>
+        </is>
+      </c>
+      <c r="E34" s="7" t="inlineStr">
+        <is>
+          <t>二次接线</t>
+        </is>
+      </c>
+      <c r="F34" s="7" t="inlineStr">
+        <is>
+          <t>一级贯通、综合贯通调压器小电阻接地二次接线存在感应电流</t>
+        </is>
+      </c>
+      <c r="G34" s="7" t="inlineStr">
+        <is>
+          <t>小电阻接地二次线路与柜门电磁锁电源线路为同一根的四芯电缆，运行中存在感应电</t>
+        </is>
+      </c>
+      <c r="H34" s="7" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="I34" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="J34" s="7" t="inlineStr">
+        <is>
+          <t>李海东</t>
+        </is>
+      </c>
+      <c r="K34" s="7" t="inlineStr"/>
+      <c r="L34" s="7" t="inlineStr"/>
+      <c r="M34" s="7" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录10月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="31.8" customHeight="1" s="8"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:M2"/>

--- a/设备缺陷问题库（日常巡视、故障处理问题库，广供记-002汇总表，202601起）.xlsx
+++ b/设备缺陷问题库（日常巡视、故障处理问题库，广供记-002汇总表，202601起）.xlsx
@@ -1093,7 +1093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:M1"/>
@@ -3176,7 +3176,7 @@
           <t>洪映森</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="N33" s="0" t="inlineStr">
         <is>
           <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录10月.doc</t>
         </is>
@@ -3236,13 +3236,1900 @@
       <c r="K34" s="7" t="inlineStr"/>
       <c r="L34" s="7" t="inlineStr"/>
       <c r="M34" s="7" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
+      <c r="N34" s="0" t="inlineStr">
         <is>
           <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录10月.doc</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="31.8" customHeight="1" s="8"/>
+    <row r="35" ht="60.6" customHeight="1" s="8">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B35" s="7" t="inlineStr">
+        <is>
+          <t>2024.10.11</t>
+        </is>
+      </c>
+      <c r="C35" s="7" t="inlineStr">
+        <is>
+          <t>郭新城、洪映森</t>
+        </is>
+      </c>
+      <c r="D35" s="7" t="inlineStr">
+        <is>
+          <t>汕头高铁配电所</t>
+        </is>
+      </c>
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t>二次接线</t>
+        </is>
+      </c>
+      <c r="F35" s="7" t="inlineStr">
+        <is>
+          <t>一级贯通调压器小电阻接地二次回路存在两点接地</t>
+        </is>
+      </c>
+      <c r="G35" s="7" t="inlineStr">
+        <is>
+          <t>高压柜厂家已在柜中有一点接地，小电阻零序电流互感器二次回路接线人员在小电阻柜内又一次接地，双方均未提醒、确认对方的接线方式，复测人员也未能及时发现此问题</t>
+        </is>
+      </c>
+      <c r="H35" s="7" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="I35" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="J35" s="7" t="inlineStr">
+        <is>
+          <t>李海东</t>
+        </is>
+      </c>
+      <c r="K35" s="7" t="inlineStr">
+        <is>
+          <t>10月22、23日，天窗点内对配电所一段、二段母线停电，拆除重复接地点</t>
+        </is>
+      </c>
+      <c r="L35" s="7" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="M35" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="N35" s="0" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录10月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="37.2" customHeight="1" s="8">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B36" s="7" t="inlineStr">
+        <is>
+          <t>2024.10.22</t>
+        </is>
+      </c>
+      <c r="C36" s="7" t="inlineStr">
+        <is>
+          <t>郭新城、洪映森</t>
+        </is>
+      </c>
+      <c r="D36" s="7" t="inlineStr">
+        <is>
+          <t>汕头高铁配电所</t>
+        </is>
+      </c>
+      <c r="E36" s="7" t="inlineStr">
+        <is>
+          <t>二次接线</t>
+        </is>
+      </c>
+      <c r="F36" s="7" t="inlineStr">
+        <is>
+          <t>一级贯通、综合贯通调压器小电阻接地二次接线存在感应电流</t>
+        </is>
+      </c>
+      <c r="G36" s="7" t="inlineStr">
+        <is>
+          <t>小电阻接地二次线路与柜门电磁锁电源线路为同一根的四芯电缆，运行中存在感应电</t>
+        </is>
+      </c>
+      <c r="H36" s="7" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="I36" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="J36" s="7" t="inlineStr">
+        <is>
+          <t>李海东</t>
+        </is>
+      </c>
+      <c r="K36" s="7" t="inlineStr"/>
+      <c r="L36" s="7" t="inlineStr"/>
+      <c r="M36" s="7" t="inlineStr"/>
+      <c r="N36" s="0" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录10月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="60.6" customHeight="1" s="8">
+      <c r="A37" s="7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B37" s="7" t="inlineStr">
+        <is>
+          <t>2024.10.11</t>
+        </is>
+      </c>
+      <c r="C37" s="7" t="inlineStr">
+        <is>
+          <t>郭新城、洪映森</t>
+        </is>
+      </c>
+      <c r="D37" s="7" t="inlineStr">
+        <is>
+          <t>汕头高铁配电所</t>
+        </is>
+      </c>
+      <c r="E37" s="7" t="inlineStr">
+        <is>
+          <t>二次接线</t>
+        </is>
+      </c>
+      <c r="F37" s="7" t="inlineStr">
+        <is>
+          <t>一级贯通调压器小电阻接地二次回路存在两点接地</t>
+        </is>
+      </c>
+      <c r="G37" s="7" t="inlineStr">
+        <is>
+          <t>高压柜厂家已在柜中有一点接地，小电阻零序电流互感器二次回路接线人员在小电阻柜内又一次接地，双方均未提醒、确认对方的接线方式，复测人员也未能及时发现此问题</t>
+        </is>
+      </c>
+      <c r="H37" s="7" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="I37" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="J37" s="7" t="inlineStr">
+        <is>
+          <t>李海东</t>
+        </is>
+      </c>
+      <c r="K37" s="7" t="inlineStr">
+        <is>
+          <t>10月22、23日，天窗点内对配电所一段、二段母线停电，拆除重复接地点</t>
+        </is>
+      </c>
+      <c r="L37" s="7" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="M37" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录10月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="37.2" customHeight="1" s="8">
+      <c r="A38" s="7" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B38" s="7" t="inlineStr">
+        <is>
+          <t>2024.10.22</t>
+        </is>
+      </c>
+      <c r="C38" s="7" t="inlineStr">
+        <is>
+          <t>郭新城、洪映森</t>
+        </is>
+      </c>
+      <c r="D38" s="7" t="inlineStr">
+        <is>
+          <t>汕头高铁配电所</t>
+        </is>
+      </c>
+      <c r="E38" s="7" t="inlineStr">
+        <is>
+          <t>二次接线</t>
+        </is>
+      </c>
+      <c r="F38" s="7" t="inlineStr">
+        <is>
+          <t>一级贯通、综合贯通调压器小电阻接地二次接线存在感应电流</t>
+        </is>
+      </c>
+      <c r="G38" s="7" t="inlineStr">
+        <is>
+          <t>小电阻接地二次线路与柜门电磁锁电源线路为同一根的四芯电缆，运行中存在感应电</t>
+        </is>
+      </c>
+      <c r="H38" s="7" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="I38" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="J38" s="7" t="inlineStr">
+        <is>
+          <t>李海东</t>
+        </is>
+      </c>
+      <c r="K38" s="7" t="inlineStr"/>
+      <c r="L38" s="7" t="inlineStr"/>
+      <c r="M38" s="7" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录10月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="37.2" customHeight="1" s="8">
+      <c r="A39" s="7" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B39" s="7" t="inlineStr">
+        <is>
+          <t>2024.11.04</t>
+        </is>
+      </c>
+      <c r="C39" s="7" t="inlineStr">
+        <is>
+          <t>孔超凡、焦仕亮</t>
+        </is>
+      </c>
+      <c r="D39" s="7" t="inlineStr">
+        <is>
+          <t>汕头站区配电所</t>
+        </is>
+      </c>
+      <c r="E39" s="7" t="inlineStr">
+        <is>
+          <t>地坪漆</t>
+        </is>
+      </c>
+      <c r="F39" s="7" t="inlineStr">
+        <is>
+          <t>高压室地坪漆开裂</t>
+        </is>
+      </c>
+      <c r="G39" s="7" t="inlineStr">
+        <is>
+          <t>地坪漆粉涮工艺不良，造成开裂</t>
+        </is>
+      </c>
+      <c r="H39" s="7" t="inlineStr">
+        <is>
+          <t>12.10</t>
+        </is>
+      </c>
+      <c r="I39" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="J39" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="K39" s="7" t="inlineStr">
+        <is>
+          <t>重新涮地坪漆</t>
+        </is>
+      </c>
+      <c r="L39" s="7" t="inlineStr"/>
+      <c r="M39" s="7" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录11月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="37.2" customHeight="1" s="8">
+      <c r="A40" s="7" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B40" s="7" t="inlineStr">
+        <is>
+          <t>2024.11.04</t>
+        </is>
+      </c>
+      <c r="C40" s="7" t="inlineStr">
+        <is>
+          <t>孔超凡、焦仕亮</t>
+        </is>
+      </c>
+      <c r="D40" s="7" t="inlineStr">
+        <is>
+          <t>汕头站区配电所</t>
+        </is>
+      </c>
+      <c r="E40" s="7" t="inlineStr">
+        <is>
+          <t>低压控制线</t>
+        </is>
+      </c>
+      <c r="F40" s="7" t="inlineStr">
+        <is>
+          <t>电缆夹层内风机控制箱内控制电缆外皮有划痕</t>
+        </is>
+      </c>
+      <c r="G40" s="7" t="inlineStr">
+        <is>
+          <t>安装工艺不良，敷设控制电缆时划伤电缆外皮</t>
+        </is>
+      </c>
+      <c r="H40" s="7" t="inlineStr">
+        <is>
+          <t>立行立改</t>
+        </is>
+      </c>
+      <c r="I40" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="J40" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="K40" s="7" t="inlineStr">
+        <is>
+          <t>采用绝缘胶布进行包扎</t>
+        </is>
+      </c>
+      <c r="L40" s="7" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="M40" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录11月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="37.2" customHeight="1" s="8">
+      <c r="A41" s="7" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B41" s="7" t="inlineStr">
+        <is>
+          <t>2024.11.04</t>
+        </is>
+      </c>
+      <c r="C41" s="7" t="inlineStr">
+        <is>
+          <t>孔超凡、焦仕亮</t>
+        </is>
+      </c>
+      <c r="D41" s="7" t="inlineStr">
+        <is>
+          <t>汕头站区配电所</t>
+        </is>
+      </c>
+      <c r="E41" s="7" t="inlineStr">
+        <is>
+          <t>高压验电器</t>
+        </is>
+      </c>
+      <c r="F41" s="7" t="inlineStr">
+        <is>
+          <t>高压验电器内电池电量不足，试验时声响太小</t>
+        </is>
+      </c>
+      <c r="G41" s="7" t="inlineStr">
+        <is>
+          <t>电池老化，电量下降</t>
+        </is>
+      </c>
+      <c r="H41" s="7" t="inlineStr">
+        <is>
+          <t>立行立改</t>
+        </is>
+      </c>
+      <c r="I41" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="J41" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="K41" s="7" t="inlineStr">
+        <is>
+          <t>更换电池</t>
+        </is>
+      </c>
+      <c r="L41" s="7" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="M41" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录11月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="37.2" customHeight="1" s="8">
+      <c r="A42" s="7" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B42" s="7" t="inlineStr">
+        <is>
+          <t>2024.11.04</t>
+        </is>
+      </c>
+      <c r="C42" s="7" t="inlineStr">
+        <is>
+          <t>孔超凡、焦仕亮</t>
+        </is>
+      </c>
+      <c r="D42" s="7" t="inlineStr">
+        <is>
+          <t>汕头站区配电所</t>
+        </is>
+      </c>
+      <c r="E42" s="7" t="inlineStr">
+        <is>
+          <t>空调遥控器</t>
+        </is>
+      </c>
+      <c r="F42" s="7" t="inlineStr">
+        <is>
+          <t>遥控器电量不足，无法遥控</t>
+        </is>
+      </c>
+      <c r="G42" s="7" t="inlineStr">
+        <is>
+          <t>电池老化，电量下降</t>
+        </is>
+      </c>
+      <c r="H42" s="7" t="inlineStr">
+        <is>
+          <t>立行立改</t>
+        </is>
+      </c>
+      <c r="I42" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="J42" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="K42" s="7" t="inlineStr">
+        <is>
+          <t>更换电池</t>
+        </is>
+      </c>
+      <c r="L42" s="7" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="M42" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录11月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="37.2" customHeight="1" s="8">
+      <c r="A43" s="7" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B43" s="7" t="inlineStr">
+        <is>
+          <t>2024.11.04</t>
+        </is>
+      </c>
+      <c r="C43" s="7" t="inlineStr">
+        <is>
+          <t>孔超凡、焦仕亮</t>
+        </is>
+      </c>
+      <c r="D43" s="7" t="inlineStr">
+        <is>
+          <t>南侧雨棚箱变</t>
+        </is>
+      </c>
+      <c r="E43" s="7" t="inlineStr">
+        <is>
+          <t>孔洞封堵</t>
+        </is>
+      </c>
+      <c r="F43" s="7" t="inlineStr">
+        <is>
+          <t>箱变内个别低压电缆进出线孔洞未封堵</t>
+        </is>
+      </c>
+      <c r="G43" s="7" t="inlineStr">
+        <is>
+          <t>施工时存在漏堵，未及时发现</t>
+        </is>
+      </c>
+      <c r="H43" s="7" t="inlineStr">
+        <is>
+          <t>立行立改</t>
+        </is>
+      </c>
+      <c r="I43" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="J43" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="K43" s="7" t="inlineStr">
+        <is>
+          <t>及时封堵孔洞</t>
+        </is>
+      </c>
+      <c r="L43" s="7" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="M43" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录11月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="37.2" customHeight="1" s="8">
+      <c r="A44" s="7" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B44" s="7" t="inlineStr">
+        <is>
+          <t>2024.11.04</t>
+        </is>
+      </c>
+      <c r="C44" s="7" t="inlineStr">
+        <is>
+          <t>孔超凡、焦仕亮</t>
+        </is>
+      </c>
+      <c r="D44" s="7" t="inlineStr">
+        <is>
+          <t>汕头站房柴发室</t>
+        </is>
+      </c>
+      <c r="E44" s="7" t="inlineStr">
+        <is>
+          <t>发电机组控制面板</t>
+        </is>
+      </c>
+      <c r="F44" s="7" t="inlineStr">
+        <is>
+          <t>发电机组控制面板有一个指示灯外壳缺失</t>
+        </is>
+      </c>
+      <c r="G44" s="7" t="inlineStr">
+        <is>
+          <t>指示灯外壳损坏脱落</t>
+        </is>
+      </c>
+      <c r="H44" s="7" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="I44" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="J44" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="K44" s="7" t="inlineStr">
+        <is>
+          <t>安装缺失指示灯外壳</t>
+        </is>
+      </c>
+      <c r="L44" s="7" t="inlineStr"/>
+      <c r="M44" s="7" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录11月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="37.2" customHeight="1" s="8">
+      <c r="A45" s="7" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B45" s="7" t="inlineStr">
+        <is>
+          <t>2024/12/13</t>
+        </is>
+      </c>
+      <c r="C45" s="7" t="inlineStr">
+        <is>
+          <t>调度</t>
+        </is>
+      </c>
+      <c r="D45" s="7" t="inlineStr">
+        <is>
+          <t>汕头站东南低压所</t>
+        </is>
+      </c>
+      <c r="E45" s="7" t="inlineStr">
+        <is>
+          <t>低压开关短路跳闸</t>
+        </is>
+      </c>
+      <c r="F45" s="7" t="inlineStr">
+        <is>
+          <t>低压侧二级开关后端线路短路</t>
+        </is>
+      </c>
+      <c r="G45" s="7" t="inlineStr">
+        <is>
+          <t>联创在低压侧二级开关后端作业，造成线路短路，两级开关都跳闸。</t>
+        </is>
+      </c>
+      <c r="H45" s="7" t="inlineStr">
+        <is>
+          <t>立行立改</t>
+        </is>
+      </c>
+      <c r="I45" s="7" t="inlineStr">
+        <is>
+          <t>联创公司</t>
+        </is>
+      </c>
+      <c r="J45" s="7" t="inlineStr">
+        <is>
+          <t>郑桂标</t>
+        </is>
+      </c>
+      <c r="K45" s="7" t="inlineStr">
+        <is>
+          <t>要求作业人员分开后端开关，按规范作业，避免短路</t>
+        </is>
+      </c>
+      <c r="L45" s="7" t="inlineStr">
+        <is>
+          <t>2024/12/13</t>
+        </is>
+      </c>
+      <c r="M45" s="7" t="inlineStr">
+        <is>
+          <t>郑桂标</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\24\广供-002：设备缺陷处理问题库及设备缺陷处理记录12月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="39" customHeight="1" s="8">
+      <c r="A46" s="7" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B46" s="7" t="inlineStr">
+        <is>
+          <t>2025/11/20</t>
+        </is>
+      </c>
+      <c r="C46" s="7" t="inlineStr">
+        <is>
+          <t>吴杰凯</t>
+        </is>
+      </c>
+      <c r="D46" s="7" t="inlineStr">
+        <is>
+          <t>汕头站东南低压所</t>
+        </is>
+      </c>
+      <c r="E46" s="7" t="inlineStr"/>
+      <c r="F46" s="7" t="inlineStr">
+        <is>
+          <t>D1-14-2(ESD2-3)空调动力在消防切非试验后，开关跳闸</t>
+        </is>
+      </c>
+      <c r="G46" s="7" t="inlineStr">
+        <is>
+          <t>消防切非后，作业人员私自在后端作业，作业后遗留工具在开关上，造成送电后短路跳闸。</t>
+        </is>
+      </c>
+      <c r="H46" s="7" t="inlineStr">
+        <is>
+          <t>2025/11/25</t>
+        </is>
+      </c>
+      <c r="I46" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="J46" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="K46" s="7" t="inlineStr">
+        <is>
+          <t>一是要求用户严禁私自在后端作业；二是更换绝缘子及开关，检测线路无异常后磅电正常</t>
+        </is>
+      </c>
+      <c r="L46" s="7" t="inlineStr">
+        <is>
+          <t>2025/11/22</t>
+        </is>
+      </c>
+      <c r="M46" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录11月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="37.2" customHeight="1" s="8">
+      <c r="A47" s="7" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B47" s="7" t="inlineStr">
+        <is>
+          <t>2025/12/17</t>
+        </is>
+      </c>
+      <c r="C47" s="7" t="inlineStr">
+        <is>
+          <t>洪映森、王振豪</t>
+        </is>
+      </c>
+      <c r="D47" s="7" t="inlineStr">
+        <is>
+          <t>汕头站南侧雨棚停车场箱变</t>
+        </is>
+      </c>
+      <c r="E47" s="7" t="inlineStr"/>
+      <c r="F47" s="7" t="inlineStr">
+        <is>
+          <t>汕头站南侧雨棚停车场箱变维护通道熔纤盒前光纤断两根芯线（共四芯）</t>
+        </is>
+      </c>
+      <c r="G47" s="7" t="inlineStr"/>
+      <c r="H47" s="7" t="inlineStr">
+        <is>
+          <t>2026/1/17</t>
+        </is>
+      </c>
+      <c r="I47" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="J47" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="K47" s="7" t="inlineStr"/>
+      <c r="L47" s="7" t="inlineStr"/>
+      <c r="M47" s="7" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录12月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="37.2" customHeight="1" s="8">
+      <c r="A48" s="7" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B48" s="7" t="inlineStr">
+        <is>
+          <t>2025/12/18</t>
+        </is>
+      </c>
+      <c r="C48" s="7" t="inlineStr">
+        <is>
+          <t>孔超凡、王振豪</t>
+        </is>
+      </c>
+      <c r="D48" s="7" t="inlineStr">
+        <is>
+          <t>汕头站行车公寓低压所</t>
+        </is>
+      </c>
+      <c r="E48" s="7" t="inlineStr"/>
+      <c r="F48" s="7" t="inlineStr">
+        <is>
+          <t>汕头站行车公寓低压所集团调度后台自投自复功能，切除与投入同时显示红灯</t>
+        </is>
+      </c>
+      <c r="G48" s="7" t="inlineStr"/>
+      <c r="H48" s="7" t="inlineStr">
+        <is>
+          <t>2026/1/18</t>
+        </is>
+      </c>
+      <c r="I48" s="7" t="inlineStr">
+        <is>
+          <t>孔超凡</t>
+        </is>
+      </c>
+      <c r="J48" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="K48" s="7" t="inlineStr"/>
+      <c r="L48" s="7" t="inlineStr"/>
+      <c r="M48" s="7" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录12月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="71.39999999999999" customHeight="1" s="8">
+      <c r="A49" s="7" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B49" s="7" t="inlineStr">
+        <is>
+          <t>2025/11/7</t>
+        </is>
+      </c>
+      <c r="C49" s="7" t="inlineStr">
+        <is>
+          <t>孔超凡</t>
+        </is>
+      </c>
+      <c r="D49" s="7" t="inlineStr">
+        <is>
+          <t>汕头站高铁配电所</t>
+        </is>
+      </c>
+      <c r="E49" s="7" t="inlineStr"/>
+      <c r="F49" s="7" t="inlineStr">
+        <is>
+          <t>汕头站高铁配电所，3231开关信息上传到调度端时间滞后两三分钟，导致调度端报文延时，可能会造成调度端后台显示先合断路器323后合隔离开关3231（检查发现电脑后台时间与手机时间相差三分钟）</t>
+        </is>
+      </c>
+      <c r="G49" s="7" t="inlineStr"/>
+      <c r="H49" s="7" t="inlineStr">
+        <is>
+          <t>2026/1/18</t>
+        </is>
+      </c>
+      <c r="I49" s="7" t="inlineStr">
+        <is>
+          <t>孔超凡</t>
+        </is>
+      </c>
+      <c r="J49" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="K49" s="7" t="inlineStr"/>
+      <c r="L49" s="7" t="inlineStr"/>
+      <c r="M49" s="7" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录12月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="37.2" customHeight="1" s="8">
+      <c r="A50" s="7" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B50" s="7" t="inlineStr">
+        <is>
+          <t>2025/2/12</t>
+        </is>
+      </c>
+      <c r="C50" s="7" t="inlineStr">
+        <is>
+          <t>车站</t>
+        </is>
+      </c>
+      <c r="D50" s="7" t="inlineStr">
+        <is>
+          <t>汕头站东南低压所</t>
+        </is>
+      </c>
+      <c r="E50" s="7" t="inlineStr">
+        <is>
+          <t>传感器故障</t>
+        </is>
+      </c>
+      <c r="F50" s="7" t="inlineStr">
+        <is>
+          <t>2月12日7点，车站通知车间汕头东南所外气体报警装置报警</t>
+        </is>
+      </c>
+      <c r="G50" s="7" t="inlineStr">
+        <is>
+          <t>SF6/Q2气体报警装置传感器损坏导致误报，现场已通知厂家更换传感器</t>
+        </is>
+      </c>
+      <c r="H50" s="7" t="inlineStr">
+        <is>
+          <t>立行立改</t>
+        </is>
+      </c>
+      <c r="I50" s="7" t="inlineStr">
+        <is>
+          <t>中铁建设</t>
+        </is>
+      </c>
+      <c r="J50" s="7" t="inlineStr">
+        <is>
+          <t>焦仕亮</t>
+        </is>
+      </c>
+      <c r="K50" s="7" t="inlineStr">
+        <is>
+          <t>现场已通知厂家更换传感器</t>
+        </is>
+      </c>
+      <c r="L50" s="7" t="inlineStr">
+        <is>
+          <t>2025/2/12</t>
+        </is>
+      </c>
+      <c r="M50" s="7" t="inlineStr">
+        <is>
+          <t>焦仕亮</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录2月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="37.2" customHeight="1" s="8">
+      <c r="A51" s="7" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B51" s="7" t="inlineStr">
+        <is>
+          <t>2025/2/15</t>
+        </is>
+      </c>
+      <c r="C51" s="7" t="inlineStr">
+        <is>
+          <t>车站</t>
+        </is>
+      </c>
+      <c r="D51" s="7" t="inlineStr">
+        <is>
+          <t>汕头站东南低压所</t>
+        </is>
+      </c>
+      <c r="E51" s="7" t="inlineStr">
+        <is>
+          <t>传感器故障</t>
+        </is>
+      </c>
+      <c r="F51" s="7" t="inlineStr">
+        <is>
+          <t>2月15日9点，车站通知车间汕头东南所外气体报警装置报警</t>
+        </is>
+      </c>
+      <c r="G51" s="7" t="inlineStr">
+        <is>
+          <t>SF6/Q3气体报警装置传感器灵敏度过高导致误报，厂家已设置好定值</t>
+        </is>
+      </c>
+      <c r="H51" s="7" t="inlineStr">
+        <is>
+          <t>立行立改</t>
+        </is>
+      </c>
+      <c r="I51" s="7" t="inlineStr">
+        <is>
+          <t>中铁建设</t>
+        </is>
+      </c>
+      <c r="J51" s="7" t="inlineStr">
+        <is>
+          <t>焦仕亮</t>
+        </is>
+      </c>
+      <c r="K51" s="7" t="inlineStr">
+        <is>
+          <t>已要求厂家重新设置好定值</t>
+        </is>
+      </c>
+      <c r="L51" s="7" t="inlineStr">
+        <is>
+          <t>2025/2/15</t>
+        </is>
+      </c>
+      <c r="M51" s="7" t="inlineStr">
+        <is>
+          <t>焦仕亮</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录2月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="37.2" customHeight="1" s="8">
+      <c r="A52" s="7" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B52" s="7" t="inlineStr">
+        <is>
+          <t>2025/2/16</t>
+        </is>
+      </c>
+      <c r="C52" s="7" t="inlineStr">
+        <is>
+          <t>调度</t>
+        </is>
+      </c>
+      <c r="D52" s="7" t="inlineStr">
+        <is>
+          <t>汕头站东北低压所</t>
+        </is>
+      </c>
+      <c r="E52" s="7" t="inlineStr">
+        <is>
+          <t>低压开关短路跳闸</t>
+        </is>
+      </c>
+      <c r="F52" s="7" t="inlineStr">
+        <is>
+          <t>低压侧二级开关后端线路短路</t>
+        </is>
+      </c>
+      <c r="G52" s="7" t="inlineStr">
+        <is>
+          <t>联创在低压侧二级开关后端作业，造成线路短路，两级开关都跳闸。</t>
+        </is>
+      </c>
+      <c r="H52" s="7" t="inlineStr">
+        <is>
+          <t>立行立改</t>
+        </is>
+      </c>
+      <c r="I52" s="7" t="inlineStr">
+        <is>
+          <t>联创公司</t>
+        </is>
+      </c>
+      <c r="J52" s="7" t="inlineStr">
+        <is>
+          <t>焦仕亮</t>
+        </is>
+      </c>
+      <c r="K52" s="7" t="inlineStr">
+        <is>
+          <t>要求作业人员分开后端开关，按规范作业，避免短路</t>
+        </is>
+      </c>
+      <c r="L52" s="7" t="inlineStr">
+        <is>
+          <t>2025/2/16</t>
+        </is>
+      </c>
+      <c r="M52" s="7" t="inlineStr">
+        <is>
+          <t>焦仕亮</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录2月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="46.2" customHeight="1" s="8">
+      <c r="A53" s="7" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B53" s="7" t="inlineStr">
+        <is>
+          <t>2025/4/7</t>
+        </is>
+      </c>
+      <c r="C53" s="7" t="inlineStr">
+        <is>
+          <t>调度</t>
+        </is>
+      </c>
+      <c r="D53" s="7" t="inlineStr">
+        <is>
+          <t>汕头行车公寓低压所</t>
+        </is>
+      </c>
+      <c r="E53" s="7" t="inlineStr">
+        <is>
+          <t>低压侧二级开关上端短路</t>
+        </is>
+      </c>
+      <c r="F53" s="7" t="inlineStr">
+        <is>
+          <t>4月7日14点20分，接车间李主任通知公寓楼低压所D2-9-1公寓楼4层总开关跳闸</t>
+        </is>
+      </c>
+      <c r="G53" s="7" t="inlineStr">
+        <is>
+          <t>公寓楼4层L-4-2开关箱电缆进口封堵作业过程中，工具掉落在二级开关上端头，造成线路短路，一级开关跳闸。</t>
+        </is>
+      </c>
+      <c r="H53" s="7" t="inlineStr">
+        <is>
+          <t>立行立改</t>
+        </is>
+      </c>
+      <c r="I53" s="7" t="inlineStr">
+        <is>
+          <t>公寓车间</t>
+        </is>
+      </c>
+      <c r="J53" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="K53" s="7" t="inlineStr">
+        <is>
+          <t>要求作业人员检查后端设备，确认线路正常后再申请送电，并要按规范作业，确保人身、设备安全</t>
+        </is>
+      </c>
+      <c r="L53" s="7" t="inlineStr">
+        <is>
+          <t>2025/4/7</t>
+        </is>
+      </c>
+      <c r="M53" s="7" t="inlineStr">
+        <is>
+          <t>吴杰凯</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录4月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="39.59999999999999" customHeight="1" s="8">
+      <c r="A54" s="7" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B54" s="7" t="inlineStr">
+        <is>
+          <t>2025/5/23</t>
+        </is>
+      </c>
+      <c r="C54" s="7" t="inlineStr">
+        <is>
+          <t>郑桂标、吴杰凯</t>
+        </is>
+      </c>
+      <c r="D54" s="7" t="inlineStr">
+        <is>
+          <t>柴油发电机房</t>
+        </is>
+      </c>
+      <c r="E54" s="7" t="inlineStr">
+        <is>
+          <t>空调管漏水</t>
+        </is>
+      </c>
+      <c r="F54" s="7" t="inlineStr">
+        <is>
+          <t>5月23日09点40分，巡视发电机房发现油料房房顶空调管冷凝水滴落，造成地板小积水</t>
+        </is>
+      </c>
+      <c r="G54" s="7" t="inlineStr">
+        <is>
+          <t>空调排水管排水不畅</t>
+        </is>
+      </c>
+      <c r="H54" s="7" t="inlineStr">
+        <is>
+          <t>立行立改</t>
+        </is>
+      </c>
+      <c r="I54" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="J54" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="K54" s="7" t="inlineStr">
+        <is>
+          <t>及时上报施工单位及厂家，要求及时修复</t>
+        </is>
+      </c>
+      <c r="L54" s="7" t="inlineStr">
+        <is>
+          <t>2025.6.6</t>
+        </is>
+      </c>
+      <c r="M54" s="7" t="inlineStr">
+        <is>
+          <t>洪映森、汪文轩</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录5月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="38.4" customHeight="1" s="8">
+      <c r="A55" s="7" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B55" s="7" t="inlineStr">
+        <is>
+          <t>2025/5/23</t>
+        </is>
+      </c>
+      <c r="C55" s="7" t="inlineStr">
+        <is>
+          <t>郑桂标、吴杰凯</t>
+        </is>
+      </c>
+      <c r="D55" s="7" t="inlineStr">
+        <is>
+          <t>站房东北低压所</t>
+        </is>
+      </c>
+      <c r="E55" s="7" t="inlineStr">
+        <is>
+          <t>滤波柜显示故障</t>
+        </is>
+      </c>
+      <c r="F55" s="7" t="inlineStr">
+        <is>
+          <t>5月23日09点00分，巡视站房东北低压所发现，END603有源滤波柜显示故障</t>
+        </is>
+      </c>
+      <c r="G55" s="7" t="inlineStr">
+        <is>
+          <t>谐波参数设置不合理，有源滤波柜无法投用</t>
+        </is>
+      </c>
+      <c r="H55" s="7" t="inlineStr">
+        <is>
+          <t>立行立改</t>
+        </is>
+      </c>
+      <c r="I55" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="J55" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="K55" s="7" t="inlineStr">
+        <is>
+          <t>及时上报施工单位及厂家，要求及时修复</t>
+        </is>
+      </c>
+      <c r="L55" s="7" t="inlineStr">
+        <is>
+          <t>2025.5.23</t>
+        </is>
+      </c>
+      <c r="M55" s="7" t="inlineStr">
+        <is>
+          <t>郑桂标、汪文轩</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录5月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="38.4" customHeight="1" s="8">
+      <c r="A56" s="7" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B56" s="7" t="inlineStr">
+        <is>
+          <t>2025/5/23</t>
+        </is>
+      </c>
+      <c r="C56" s="7" t="inlineStr">
+        <is>
+          <t>郑桂标、吴杰凯</t>
+        </is>
+      </c>
+      <c r="D56" s="7" t="inlineStr">
+        <is>
+          <t>站房东南低压所</t>
+        </is>
+      </c>
+      <c r="E56" s="7" t="inlineStr">
+        <is>
+          <t>滤波柜显示故障</t>
+        </is>
+      </c>
+      <c r="F56" s="7" t="inlineStr">
+        <is>
+          <t>5月23日09点20分，巡视站房东南低压所发现，ESD304有源滤波柜显示故障</t>
+        </is>
+      </c>
+      <c r="G56" s="7" t="inlineStr">
+        <is>
+          <t>谐波参数设置不合理，有源滤波柜无法投用</t>
+        </is>
+      </c>
+      <c r="H56" s="7" t="inlineStr">
+        <is>
+          <t>立行立改</t>
+        </is>
+      </c>
+      <c r="I56" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="J56" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="K56" s="7" t="inlineStr">
+        <is>
+          <t>及时上报施工单位及厂家，要求及时修复</t>
+        </is>
+      </c>
+      <c r="L56" s="7" t="inlineStr">
+        <is>
+          <t>2025.5.23</t>
+        </is>
+      </c>
+      <c r="M56" s="7" t="inlineStr">
+        <is>
+          <t>郑桂标、汪文轩</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录5月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="52.8" customHeight="1" s="8">
+      <c r="A57" s="7" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B57" s="7" t="inlineStr">
+        <is>
+          <t>2025/6/16</t>
+        </is>
+      </c>
+      <c r="C57" s="7" t="inlineStr">
+        <is>
+          <t>郑桂标、谢泽彬、焦仕亮</t>
+        </is>
+      </c>
+      <c r="D57" s="7" t="inlineStr">
+        <is>
+          <t>站房东北低压所</t>
+        </is>
+      </c>
+      <c r="E57" s="7" t="inlineStr"/>
+      <c r="F57" s="7" t="inlineStr">
+        <is>
+          <t>东北低压所T2变有源滤波柜END204异常</t>
+        </is>
+      </c>
+      <c r="G57" s="7" t="inlineStr"/>
+      <c r="H57" s="7" t="inlineStr">
+        <is>
+          <t>7月15日</t>
+        </is>
+      </c>
+      <c r="I57" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="J57" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="K57" s="7" t="inlineStr">
+        <is>
+          <t>在厂家指导下采取重启设备、检查通信接口等方法，异常未消失。已要求厂家尽快到现场处理，期间工区要加强设备巡视，及时发现不安全因素</t>
+        </is>
+      </c>
+      <c r="L57" s="7" t="inlineStr"/>
+      <c r="M57" s="7" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录6月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="52.8" customHeight="1" s="8">
+      <c r="A58" s="7" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B58" s="7" t="inlineStr">
+        <is>
+          <t>2025/6/16</t>
+        </is>
+      </c>
+      <c r="C58" s="7" t="inlineStr">
+        <is>
+          <t>郑桂标、谢泽彬、焦仕亮</t>
+        </is>
+      </c>
+      <c r="D58" s="7" t="inlineStr">
+        <is>
+          <t>站房东北低压所</t>
+        </is>
+      </c>
+      <c r="E58" s="7" t="inlineStr"/>
+      <c r="F58" s="7" t="inlineStr">
+        <is>
+          <t>东北低压所T3变有源滤波柜END304异常</t>
+        </is>
+      </c>
+      <c r="G58" s="7" t="inlineStr"/>
+      <c r="H58" s="7" t="inlineStr">
+        <is>
+          <t>7月15日</t>
+        </is>
+      </c>
+      <c r="I58" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="J58" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="K58" s="7" t="inlineStr">
+        <is>
+          <t>在厂家指导下采取重启设备、检查通信接口等方法，异常未消失。已要求厂家尽快到现场处理，期间工区要加强设备巡视，及时发现不安全因素</t>
+        </is>
+      </c>
+      <c r="L58" s="7" t="inlineStr"/>
+      <c r="M58" s="7" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录6月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="37.2" customHeight="1" s="8">
+      <c r="A59" s="7" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B59" s="7" t="inlineStr">
+        <is>
+          <t>2025/07/08</t>
+        </is>
+      </c>
+      <c r="C59" s="7" t="inlineStr">
+        <is>
+          <t>洪映森、谢泽彬</t>
+        </is>
+      </c>
+      <c r="D59" s="7" t="inlineStr">
+        <is>
+          <t>站区配电所小电阻室</t>
+        </is>
+      </c>
+      <c r="E59" s="7" t="inlineStr"/>
+      <c r="F59" s="7" t="inlineStr">
+        <is>
+          <t>站区配电所一级侧、综合侧小电阻柜内显明灯不亮（3W）</t>
+        </is>
+      </c>
+      <c r="G59" s="7" t="inlineStr">
+        <is>
+          <t>照明灯损坏</t>
+        </is>
+      </c>
+      <c r="H59" s="7" t="inlineStr">
+        <is>
+          <t>2025.7.31</t>
+        </is>
+      </c>
+      <c r="I59" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="J59" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="K59" s="7" t="inlineStr"/>
+      <c r="L59" s="7" t="inlineStr"/>
+      <c r="M59" s="7" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录7月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="37.2" customHeight="1" s="8">
+      <c r="A60" s="7" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B60" s="7" t="inlineStr">
+        <is>
+          <t>2025/8/7</t>
+        </is>
+      </c>
+      <c r="C60" s="7" t="inlineStr">
+        <is>
+          <t>调度</t>
+        </is>
+      </c>
+      <c r="D60" s="7" t="inlineStr">
+        <is>
+          <t>汕头高铁配电所</t>
+        </is>
+      </c>
+      <c r="E60" s="7" t="inlineStr"/>
+      <c r="F60" s="7" t="inlineStr">
+        <is>
+          <t>8月7日凌晨3点50分接到车间通知调度后台报警</t>
+        </is>
+      </c>
+      <c r="G60" s="7" t="inlineStr">
+        <is>
+          <t>经综合分析判断为浪涌保护器质量问题造成</t>
+        </is>
+      </c>
+      <c r="H60" s="7" t="inlineStr">
+        <is>
+          <t>2025/9/30</t>
+        </is>
+      </c>
+      <c r="I60" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="J60" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="K60" s="7" t="inlineStr">
+        <is>
+          <t>通知惠州检修工区及时更换损坏的浪涌保护器。</t>
+        </is>
+      </c>
+      <c r="L60" s="7" t="inlineStr"/>
+      <c r="M60" s="7" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录8月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="44.4" customHeight="1" s="8">
+      <c r="A61" s="7" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B61" s="7" t="inlineStr">
+        <is>
+          <t>2025/9/23</t>
+        </is>
+      </c>
+      <c r="C61" s="7" t="inlineStr">
+        <is>
+          <t>调度</t>
+        </is>
+      </c>
+      <c r="D61" s="7" t="inlineStr">
+        <is>
+          <t>汕头站停车场箱变</t>
+        </is>
+      </c>
+      <c r="E61" s="7" t="inlineStr"/>
+      <c r="F61" s="7" t="inlineStr">
+        <is>
+          <t>9月23日凌晨0点15分接到车间通知，调度后台报警，D1-5低压开关跳闸</t>
+        </is>
+      </c>
+      <c r="G61" s="7" t="inlineStr">
+        <is>
+          <t>经检查发现汕头站南侧雨棚停车场岗亭被汽车乱碰变形，造成室内电气线路瞬时短路，D1-5低压开关跳闸。</t>
+        </is>
+      </c>
+      <c r="H61" s="7" t="inlineStr">
+        <is>
+          <t>立行立改</t>
+        </is>
+      </c>
+      <c r="I61" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="J61" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="K61" s="7" t="inlineStr">
+        <is>
+          <t>经检查线路无异常，送电后设备运行正常</t>
+        </is>
+      </c>
+      <c r="L61" s="7" t="inlineStr">
+        <is>
+          <t>2025/9/23</t>
+        </is>
+      </c>
+      <c r="M61" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\25\广供-002：设备缺陷处理问题库及设备缺陷处理记录9月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="37.2" customHeight="1" s="8">
+      <c r="A62" s="7" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B62" s="7" t="inlineStr">
+        <is>
+          <t>2026/01/06</t>
+        </is>
+      </c>
+      <c r="C62" s="7" t="inlineStr">
+        <is>
+          <t>焦仕亮、郑桂标、王振豪</t>
+        </is>
+      </c>
+      <c r="D62" s="7" t="inlineStr">
+        <is>
+          <t>汕头高铁配电所</t>
+        </is>
+      </c>
+      <c r="E62" s="7" t="inlineStr"/>
+      <c r="F62" s="7" t="inlineStr">
+        <is>
+          <t>站区配电所交流屏的J01电操损坏，需要更换</t>
+        </is>
+      </c>
+      <c r="G62" s="7" t="inlineStr">
+        <is>
+          <t>设备质量问题</t>
+        </is>
+      </c>
+      <c r="H62" s="7" t="inlineStr">
+        <is>
+          <t>2026/02/30</t>
+        </is>
+      </c>
+      <c r="I62" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="J62" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="K62" s="7" t="inlineStr"/>
+      <c r="L62" s="7" t="inlineStr"/>
+      <c r="M62" s="7" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\26\广供-002：设备缺陷处理问题库及设备缺陷处理记录1月.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="37.2" customHeight="1" s="8">
+      <c r="A63" s="7" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B63" s="7" t="inlineStr">
+        <is>
+          <t>2026/01/06</t>
+        </is>
+      </c>
+      <c r="C63" s="7" t="inlineStr">
+        <is>
+          <t>焦仕亮、郑桂标、王振豪</t>
+        </is>
+      </c>
+      <c r="D63" s="7" t="inlineStr">
+        <is>
+          <t>汕头高铁配电所</t>
+        </is>
+      </c>
+      <c r="E63" s="7" t="inlineStr"/>
+      <c r="F63" s="7" t="inlineStr">
+        <is>
+          <t>站区配电所一号所用变的YQF1开关本体脱扣损坏，需要更换</t>
+        </is>
+      </c>
+      <c r="G63" s="7" t="inlineStr">
+        <is>
+          <t>设备质量问题</t>
+        </is>
+      </c>
+      <c r="H63" s="7" t="inlineStr">
+        <is>
+          <t>2026/02/30</t>
+        </is>
+      </c>
+      <c r="I63" s="7" t="inlineStr">
+        <is>
+          <t>洪映森</t>
+        </is>
+      </c>
+      <c r="J63" s="7" t="inlineStr">
+        <is>
+          <t>郭新城</t>
+        </is>
+      </c>
+      <c r="K63" s="7" t="inlineStr"/>
+      <c r="L63" s="7" t="inlineStr"/>
+      <c r="M63" s="7" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>e:\QC-攻关小组\正在进行项目\设备故障统计\3-设备缺陷问题库及设备缺陷处理记录\26\广供-002：设备缺陷处理问题库及设备缺陷处理记录1月.doc</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:M2"/>
